--- a/01_Dimension 11-29/12_Linear Length Gauge, Mu checker.xlsx
+++ b/01_Dimension 11-29/12_Linear Length Gauge, Mu checker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 11-29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 11-29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21045" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21045"/>
   </bookViews>
   <sheets>
     <sheet name="Data Record" sheetId="7" r:id="rId1"/>
@@ -1932,7 +1932,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="457">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2780,6 +2780,213 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="56" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="56" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="56" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="56" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="56" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="56" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="56" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="56" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="56" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="56" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2789,21 +2996,6 @@
     <xf numFmtId="176" fontId="27" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2813,9 +3005,6 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2828,207 +3017,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3053,9 +3041,63 @@
     <xf numFmtId="177" fontId="62" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="175" fontId="16" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3068,58 +3110,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3140,6 +3134,27 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3173,32 +3188,35 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3209,12 +3227,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3227,29 +3239,17 @@
     <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3280,18 +3280,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="171" fontId="20" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3369,8 +3357,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -3436,8 +3424,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -5183,8 +5171,8 @@
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
@@ -7405,8 +7393,8 @@
   </sheetPr>
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22:X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="18.75" customHeight="1"/>
@@ -7796,30 +7784,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="23.1" customHeight="1">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
+      <c r="B1" s="365"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
       <c r="K1" s="96" t="s">
         <v>61</v>
       </c>
       <c r="M1" s="96"/>
       <c r="N1" s="96"/>
-      <c r="O1" s="290" t="s">
+      <c r="O1" s="359" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="290"/>
-      <c r="S1" s="290"/>
+      <c r="P1" s="359"/>
+      <c r="Q1" s="359"/>
+      <c r="R1" s="359"/>
+      <c r="S1" s="359"/>
       <c r="T1" s="97"/>
       <c r="U1" s="97"/>
       <c r="V1" s="97"/>
@@ -7843,58 +7831,58 @@
       <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:55" ht="23.1" customHeight="1">
-      <c r="A2" s="302"/>
-      <c r="B2" s="302"/>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
+      <c r="A2" s="365"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
       <c r="K2" s="97" t="s">
         <v>64</v>
       </c>
       <c r="M2" s="96"/>
       <c r="N2" s="97"/>
-      <c r="O2" s="289">
+      <c r="O2" s="358">
         <v>42350</v>
       </c>
-      <c r="P2" s="289"/>
-      <c r="Q2" s="289"/>
-      <c r="R2" s="289"/>
-      <c r="S2" s="289"/>
+      <c r="P2" s="358"/>
+      <c r="Q2" s="358"/>
+      <c r="R2" s="358"/>
+      <c r="S2" s="358"/>
       <c r="T2" s="97" t="s">
         <v>65</v>
       </c>
       <c r="W2" s="100"/>
       <c r="X2" s="100"/>
-      <c r="Y2" s="291">
+      <c r="Y2" s="360">
         <v>42350</v>
       </c>
-      <c r="Z2" s="291"/>
-      <c r="AA2" s="291"/>
-      <c r="AB2" s="291"/>
-      <c r="AC2" s="291"/>
+      <c r="Z2" s="360"/>
+      <c r="AA2" s="360"/>
+      <c r="AB2" s="360"/>
+      <c r="AC2" s="360"/>
       <c r="AE2" s="161"/>
       <c r="AF2" s="98"/>
       <c r="AG2" s="98"/>
       <c r="AH2" s="55"/>
     </row>
     <row r="3" spans="1:55" ht="23.1" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="366" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="366"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
       <c r="K3" s="96" t="s">
         <v>67</v>
       </c>
@@ -7902,17 +7890,17 @@
       <c r="N3" s="96"/>
       <c r="O3" s="96"/>
       <c r="P3" s="96"/>
-      <c r="Q3" s="304">
+      <c r="Q3" s="367">
         <v>20</v>
       </c>
-      <c r="R3" s="304"/>
+      <c r="R3" s="367"/>
       <c r="S3" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="304">
+      <c r="T3" s="367">
         <v>50</v>
       </c>
-      <c r="U3" s="304"/>
+      <c r="U3" s="367"/>
       <c r="V3" s="102" t="s">
         <v>69</v>
       </c>
@@ -7930,18 +7918,18 @@
       <c r="AH3" s="55"/>
     </row>
     <row r="4" spans="1:55" ht="23.1" customHeight="1">
-      <c r="A4" s="366" t="s">
+      <c r="A4" s="304" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="366"/>
-      <c r="J4" s="366"/>
+      <c r="B4" s="304"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
       <c r="K4" s="96" t="s">
         <v>26</v>
       </c>
@@ -7980,29 +7968,29 @@
       <c r="C5" s="104"/>
       <c r="D5" s="104"/>
       <c r="E5" s="104"/>
-      <c r="F5" s="292" t="s">
+      <c r="F5" s="305" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="292"/>
-      <c r="N5" s="292"/>
-      <c r="O5" s="292"/>
-      <c r="P5" s="292"/>
-      <c r="Q5" s="292"/>
-      <c r="R5" s="292"/>
-      <c r="S5" s="292"/>
-      <c r="T5" s="292"/>
-      <c r="U5" s="292"/>
-      <c r="V5" s="292"/>
-      <c r="W5" s="292"/>
-      <c r="X5" s="292"/>
-      <c r="Y5" s="292"/>
-      <c r="Z5" s="292"/>
+      <c r="G5" s="305"/>
+      <c r="H5" s="305"/>
+      <c r="I5" s="305"/>
+      <c r="J5" s="305"/>
+      <c r="K5" s="305"/>
+      <c r="L5" s="305"/>
+      <c r="M5" s="305"/>
+      <c r="N5" s="305"/>
+      <c r="O5" s="305"/>
+      <c r="P5" s="305"/>
+      <c r="Q5" s="305"/>
+      <c r="R5" s="305"/>
+      <c r="S5" s="305"/>
+      <c r="T5" s="305"/>
+      <c r="U5" s="305"/>
+      <c r="V5" s="305"/>
+      <c r="W5" s="305"/>
+      <c r="X5" s="305"/>
+      <c r="Y5" s="305"/>
+      <c r="Z5" s="305"/>
       <c r="AA5" s="103"/>
       <c r="AB5" s="103"/>
       <c r="AC5" s="103"/>
@@ -8017,18 +8005,18 @@
       <c r="C6" s="104"/>
       <c r="D6" s="104"/>
       <c r="E6" s="104"/>
-      <c r="F6" s="292" t="s">
+      <c r="F6" s="305" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="292"/>
-      <c r="H6" s="292"/>
-      <c r="I6" s="292"/>
-      <c r="J6" s="292"/>
-      <c r="K6" s="292"/>
-      <c r="L6" s="292"/>
-      <c r="M6" s="292"/>
-      <c r="N6" s="292"/>
-      <c r="O6" s="292"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="305"/>
       <c r="P6" s="103" t="s">
         <v>73</v>
       </c>
@@ -8054,35 +8042,35 @@
       <c r="A7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="311">
+      <c r="D7" s="306">
         <v>123</v>
       </c>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="311"/>
-      <c r="I7" s="311"/>
-      <c r="J7" s="311"/>
-      <c r="K7" s="311"/>
-      <c r="L7" s="362" t="s">
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="329" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="362"/>
-      <c r="N7" s="362"/>
-      <c r="O7" s="311">
+      <c r="M7" s="329"/>
+      <c r="N7" s="329"/>
+      <c r="O7" s="306">
         <v>456</v>
       </c>
-      <c r="P7" s="311"/>
-      <c r="Q7" s="311"/>
-      <c r="R7" s="311"/>
-      <c r="S7" s="311"/>
-      <c r="T7" s="311"/>
-      <c r="U7" s="311"/>
-      <c r="V7" s="311"/>
-      <c r="W7" s="363" t="s">
+      <c r="P7" s="306"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="330" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="363"/>
+      <c r="X7" s="330"/>
       <c r="Y7" s="159">
         <v>789</v>
       </c>
@@ -8102,27 +8090,27 @@
       </c>
       <c r="B8" s="105"/>
       <c r="C8" s="104"/>
-      <c r="D8" s="364">
+      <c r="D8" s="331">
         <v>1</v>
       </c>
-      <c r="E8" s="364"/>
+      <c r="E8" s="331"/>
       <c r="F8" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="364">
+      <c r="G8" s="331">
         <v>50</v>
       </c>
-      <c r="H8" s="364"/>
+      <c r="H8" s="331"/>
       <c r="I8" s="108" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="312">
+      <c r="O8" s="348">
         <v>1E-4</v>
       </c>
-      <c r="P8" s="312"/>
+      <c r="P8" s="348"/>
       <c r="Q8" s="160" t="s">
         <v>7</v>
       </c>
@@ -8161,19 +8149,19 @@
         <v>79</v>
       </c>
       <c r="N9" s="108"/>
-      <c r="O9" s="292"/>
-      <c r="P9" s="292"/>
-      <c r="Q9" s="292"/>
-      <c r="R9" s="292"/>
-      <c r="S9" s="292"/>
-      <c r="T9" s="292"/>
-      <c r="U9" s="292"/>
-      <c r="V9" s="292"/>
-      <c r="W9" s="292"/>
-      <c r="X9" s="292"/>
-      <c r="Y9" s="292"/>
-      <c r="Z9" s="292"/>
-      <c r="AA9" s="292"/>
+      <c r="O9" s="305"/>
+      <c r="P9" s="305"/>
+      <c r="Q9" s="305"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="305"/>
+      <c r="T9" s="305"/>
+      <c r="U9" s="305"/>
+      <c r="V9" s="305"/>
+      <c r="W9" s="305"/>
+      <c r="X9" s="305"/>
+      <c r="Y9" s="305"/>
+      <c r="Z9" s="305"/>
+      <c r="AA9" s="305"/>
       <c r="AB9" s="103"/>
       <c r="AC9" s="103"/>
       <c r="AD9" s="103"/>
@@ -8227,16 +8215,16 @@
       <c r="D11" s="108"/>
       <c r="E11" s="108"/>
       <c r="F11" s="108"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="318"/>
-      <c r="I11" s="318"/>
-      <c r="J11" s="318"/>
-      <c r="K11" s="318"/>
-      <c r="L11" s="318"/>
-      <c r="M11" s="318"/>
-      <c r="N11" s="318"/>
-      <c r="O11" s="318"/>
-      <c r="P11" s="318"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="357"/>
+      <c r="M11" s="357"/>
+      <c r="N11" s="357"/>
+      <c r="O11" s="357"/>
+      <c r="P11" s="357"/>
       <c r="Q11" s="103"/>
       <c r="R11" s="115" t="s">
         <v>80</v>
@@ -8267,16 +8255,16 @@
       <c r="D12" s="108"/>
       <c r="E12" s="108"/>
       <c r="F12" s="108"/>
-      <c r="G12" s="365"/>
-      <c r="H12" s="365"/>
-      <c r="I12" s="365"/>
-      <c r="J12" s="365"/>
-      <c r="K12" s="365"/>
-      <c r="L12" s="365"/>
-      <c r="M12" s="365"/>
-      <c r="N12" s="365"/>
-      <c r="O12" s="365"/>
-      <c r="P12" s="365"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="332"/>
+      <c r="I12" s="332"/>
+      <c r="J12" s="332"/>
+      <c r="K12" s="332"/>
+      <c r="L12" s="332"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="332"/>
+      <c r="O12" s="332"/>
+      <c r="P12" s="332"/>
       <c r="Q12" s="103"/>
       <c r="R12" s="115" t="s">
         <v>80</v>
@@ -8366,46 +8354,46 @@
       <c r="AS14" s="223"/>
     </row>
     <row r="15" spans="1:55" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A15" s="314" t="s">
+      <c r="A15" s="349" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="315"/>
-      <c r="C15" s="315"/>
-      <c r="D15" s="301" t="s">
+      <c r="B15" s="350"/>
+      <c r="C15" s="350"/>
+      <c r="D15" s="364" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="301"/>
-      <c r="F15" s="301"/>
-      <c r="G15" s="301"/>
-      <c r="H15" s="301"/>
-      <c r="I15" s="301"/>
-      <c r="J15" s="301"/>
-      <c r="K15" s="301"/>
-      <c r="L15" s="301"/>
-      <c r="M15" s="301"/>
-      <c r="N15" s="301"/>
-      <c r="O15" s="301"/>
-      <c r="P15" s="301"/>
-      <c r="Q15" s="301"/>
-      <c r="R15" s="301"/>
-      <c r="S15" s="300" t="s">
+      <c r="E15" s="364"/>
+      <c r="F15" s="364"/>
+      <c r="G15" s="364"/>
+      <c r="H15" s="364"/>
+      <c r="I15" s="364"/>
+      <c r="J15" s="364"/>
+      <c r="K15" s="364"/>
+      <c r="L15" s="364"/>
+      <c r="M15" s="364"/>
+      <c r="N15" s="364"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="353" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="300"/>
-      <c r="U15" s="300"/>
-      <c r="V15" s="300" t="s">
+      <c r="T15" s="353"/>
+      <c r="U15" s="353"/>
+      <c r="V15" s="353" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="300"/>
-      <c r="X15" s="300"/>
-      <c r="Y15" s="297" t="s">
+      <c r="W15" s="353"/>
+      <c r="X15" s="353"/>
+      <c r="Y15" s="361" t="s">
         <v>122</v>
       </c>
-      <c r="Z15" s="297"/>
-      <c r="AA15" s="297"/>
-      <c r="AB15" s="297"/>
-      <c r="AC15" s="297"/>
-      <c r="AD15" s="297"/>
+      <c r="Z15" s="361"/>
+      <c r="AA15" s="361"/>
+      <c r="AB15" s="361"/>
+      <c r="AC15" s="361"/>
+      <c r="AD15" s="361"/>
       <c r="AE15" s="106"/>
       <c r="AF15" s="95"/>
       <c r="AG15" s="95"/>
@@ -8433,48 +8421,48 @@
       <c r="BC15" s="95"/>
     </row>
     <row r="16" spans="1:55" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A16" s="316"/>
-      <c r="B16" s="317"/>
-      <c r="C16" s="317"/>
-      <c r="D16" s="300" t="s">
+      <c r="A16" s="351"/>
+      <c r="B16" s="352"/>
+      <c r="C16" s="352"/>
+      <c r="D16" s="353" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300" t="s">
+      <c r="E16" s="353"/>
+      <c r="F16" s="353"/>
+      <c r="G16" s="353" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="300"/>
-      <c r="I16" s="300"/>
-      <c r="J16" s="300" t="s">
+      <c r="H16" s="353"/>
+      <c r="I16" s="353"/>
+      <c r="J16" s="353" t="s">
         <v>125</v>
       </c>
-      <c r="K16" s="300"/>
-      <c r="L16" s="300"/>
-      <c r="M16" s="300" t="s">
+      <c r="K16" s="353"/>
+      <c r="L16" s="353"/>
+      <c r="M16" s="353" t="s">
         <v>126</v>
       </c>
-      <c r="N16" s="300"/>
-      <c r="O16" s="300"/>
-      <c r="P16" s="300" t="s">
+      <c r="N16" s="353"/>
+      <c r="O16" s="353"/>
+      <c r="P16" s="353" t="s">
         <v>128</v>
       </c>
-      <c r="Q16" s="300"/>
-      <c r="R16" s="300"/>
-      <c r="S16" s="300"/>
-      <c r="T16" s="300"/>
-      <c r="U16" s="300"/>
-      <c r="V16" s="300"/>
-      <c r="W16" s="300"/>
-      <c r="X16" s="300"/>
-      <c r="Y16" s="298" t="s">
+      <c r="Q16" s="353"/>
+      <c r="R16" s="353"/>
+      <c r="S16" s="353"/>
+      <c r="T16" s="353"/>
+      <c r="U16" s="353"/>
+      <c r="V16" s="353"/>
+      <c r="W16" s="353"/>
+      <c r="X16" s="353"/>
+      <c r="Y16" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="298"/>
-      <c r="AA16" s="298"/>
-      <c r="AB16" s="298"/>
-      <c r="AC16" s="298"/>
-      <c r="AD16" s="298"/>
+      <c r="Z16" s="362"/>
+      <c r="AA16" s="362"/>
+      <c r="AB16" s="362"/>
+      <c r="AC16" s="362"/>
+      <c r="AD16" s="362"/>
       <c r="AE16" s="106"/>
       <c r="AF16" s="95"/>
       <c r="AG16" s="95"/>
@@ -8502,58 +8490,58 @@
       <c r="BC16" s="95"/>
     </row>
     <row r="17" spans="1:55" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A17" s="293">
+      <c r="A17" s="354">
         <f>G8*10%</f>
         <v>5</v>
       </c>
-      <c r="B17" s="293"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="294">
+      <c r="B17" s="354"/>
+      <c r="C17" s="354"/>
+      <c r="D17" s="355">
         <v>5.0000999999999998</v>
       </c>
-      <c r="E17" s="294"/>
-      <c r="F17" s="294"/>
-      <c r="G17" s="294">
+      <c r="E17" s="355"/>
+      <c r="F17" s="355"/>
+      <c r="G17" s="355">
         <v>5.0000999999999998</v>
       </c>
-      <c r="H17" s="294"/>
-      <c r="I17" s="294"/>
-      <c r="J17" s="294">
+      <c r="H17" s="355"/>
+      <c r="I17" s="355"/>
+      <c r="J17" s="355">
         <v>5.0000999999999998</v>
       </c>
-      <c r="K17" s="294"/>
-      <c r="L17" s="294"/>
-      <c r="M17" s="294">
+      <c r="K17" s="355"/>
+      <c r="L17" s="355"/>
+      <c r="M17" s="355">
         <v>5.0000999999999998</v>
       </c>
-      <c r="N17" s="294"/>
-      <c r="O17" s="294"/>
-      <c r="P17" s="294">
+      <c r="N17" s="355"/>
+      <c r="O17" s="355"/>
+      <c r="P17" s="355">
         <v>5.0000999999999998</v>
       </c>
-      <c r="Q17" s="294"/>
-      <c r="R17" s="294"/>
-      <c r="S17" s="295">
+      <c r="Q17" s="355"/>
+      <c r="R17" s="355"/>
+      <c r="S17" s="356">
         <f>AVERAGE(D17:R17)</f>
         <v>5.0000999999999998</v>
       </c>
-      <c r="T17" s="295"/>
-      <c r="U17" s="295"/>
-      <c r="V17" s="296">
+      <c r="T17" s="356"/>
+      <c r="U17" s="356"/>
+      <c r="V17" s="333">
         <f>S17-A17</f>
         <v>9.9999999999766942E-5</v>
       </c>
-      <c r="W17" s="296"/>
-      <c r="X17" s="296"/>
-      <c r="Y17" s="299">
+      <c r="W17" s="333"/>
+      <c r="X17" s="333"/>
+      <c r="Y17" s="363">
         <f>STDEV(D17:O17)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="299"/>
-      <c r="AA17" s="299"/>
-      <c r="AB17" s="299"/>
-      <c r="AC17" s="299"/>
-      <c r="AD17" s="299"/>
+      <c r="Z17" s="363"/>
+      <c r="AA17" s="363"/>
+      <c r="AB17" s="363"/>
+      <c r="AC17" s="363"/>
+      <c r="AD17" s="363"/>
       <c r="AE17" s="106"/>
       <c r="AF17" s="95"/>
       <c r="AG17" s="95"/>
@@ -8581,58 +8569,58 @@
       <c r="BC17" s="95"/>
     </row>
     <row r="18" spans="1:55" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A18" s="293">
+      <c r="A18" s="354">
         <f>G8*100%</f>
         <v>50</v>
       </c>
-      <c r="B18" s="293"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="294">
+      <c r="B18" s="354"/>
+      <c r="C18" s="354"/>
+      <c r="D18" s="355">
         <v>50.000100000000003</v>
       </c>
-      <c r="E18" s="294"/>
-      <c r="F18" s="294"/>
-      <c r="G18" s="294">
+      <c r="E18" s="355"/>
+      <c r="F18" s="355"/>
+      <c r="G18" s="355">
         <v>50.000100000000003</v>
       </c>
-      <c r="H18" s="294"/>
-      <c r="I18" s="294"/>
-      <c r="J18" s="294">
+      <c r="H18" s="355"/>
+      <c r="I18" s="355"/>
+      <c r="J18" s="355">
         <v>50.000100000000003</v>
       </c>
-      <c r="K18" s="294"/>
-      <c r="L18" s="294"/>
-      <c r="M18" s="294">
+      <c r="K18" s="355"/>
+      <c r="L18" s="355"/>
+      <c r="M18" s="355">
         <v>50.000100000000003</v>
       </c>
-      <c r="N18" s="294"/>
-      <c r="O18" s="294"/>
-      <c r="P18" s="294">
+      <c r="N18" s="355"/>
+      <c r="O18" s="355"/>
+      <c r="P18" s="355">
         <v>50.000100000000003</v>
       </c>
-      <c r="Q18" s="294"/>
-      <c r="R18" s="294"/>
-      <c r="S18" s="295">
+      <c r="Q18" s="355"/>
+      <c r="R18" s="355"/>
+      <c r="S18" s="356">
         <f>AVERAGE(D18:R18)</f>
         <v>50.000100000000003</v>
       </c>
-      <c r="T18" s="295"/>
-      <c r="U18" s="295"/>
-      <c r="V18" s="296">
+      <c r="T18" s="356"/>
+      <c r="U18" s="356"/>
+      <c r="V18" s="333">
         <f>S18-A18</f>
         <v>1.0000000000331966E-4</v>
       </c>
-      <c r="W18" s="296"/>
-      <c r="X18" s="296"/>
-      <c r="Y18" s="299">
+      <c r="W18" s="333"/>
+      <c r="X18" s="333"/>
+      <c r="Y18" s="363">
         <f>STDEV(D18:O18)</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="299"/>
-      <c r="AA18" s="299"/>
-      <c r="AB18" s="299"/>
-      <c r="AC18" s="299"/>
-      <c r="AD18" s="299"/>
+      <c r="Z18" s="363"/>
+      <c r="AA18" s="363"/>
+      <c r="AB18" s="363"/>
+      <c r="AC18" s="363"/>
+      <c r="AD18" s="363"/>
       <c r="AE18" s="106"/>
       <c r="AF18" s="95"/>
       <c r="AG18" s="95"/>
@@ -8699,730 +8687,730 @@
       <c r="AQ19" s="223"/>
     </row>
     <row r="20" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C20" s="340" t="s">
+      <c r="C20" s="310" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="341"/>
-      <c r="E20" s="342"/>
-      <c r="F20" s="345" t="s">
+      <c r="D20" s="311"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="346"/>
-      <c r="H20" s="346"/>
-      <c r="I20" s="346"/>
-      <c r="J20" s="346"/>
-      <c r="K20" s="346"/>
-      <c r="L20" s="346"/>
-      <c r="M20" s="346"/>
-      <c r="N20" s="346"/>
-      <c r="O20" s="346"/>
-      <c r="P20" s="346"/>
-      <c r="Q20" s="347"/>
-      <c r="R20" s="348" t="s">
+      <c r="G20" s="293"/>
+      <c r="H20" s="293"/>
+      <c r="I20" s="293"/>
+      <c r="J20" s="293"/>
+      <c r="K20" s="293"/>
+      <c r="L20" s="293"/>
+      <c r="M20" s="293"/>
+      <c r="N20" s="293"/>
+      <c r="O20" s="293"/>
+      <c r="P20" s="293"/>
+      <c r="Q20" s="294"/>
+      <c r="R20" s="315" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="341"/>
-      <c r="T20" s="342"/>
-      <c r="U20" s="350" t="s">
+      <c r="S20" s="311"/>
+      <c r="T20" s="312"/>
+      <c r="U20" s="317" t="s">
         <v>2</v>
       </c>
-      <c r="V20" s="351"/>
-      <c r="W20" s="351"/>
-      <c r="X20" s="352"/>
-      <c r="Y20" s="356" t="s">
+      <c r="V20" s="318"/>
+      <c r="W20" s="318"/>
+      <c r="X20" s="319"/>
+      <c r="Y20" s="323" t="s">
         <v>19</v>
       </c>
-      <c r="Z20" s="357"/>
-      <c r="AA20" s="358"/>
+      <c r="Z20" s="324"/>
+      <c r="AA20" s="325"/>
       <c r="AD20" s="95"/>
       <c r="AE20" s="106"/>
       <c r="AF20" s="95"/>
       <c r="AG20" s="95"/>
     </row>
     <row r="21" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C21" s="343"/>
-      <c r="D21" s="344"/>
-      <c r="E21" s="344"/>
-      <c r="F21" s="345" t="s">
+      <c r="C21" s="313"/>
+      <c r="D21" s="314"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="292" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="346"/>
-      <c r="H21" s="347"/>
-      <c r="I21" s="345" t="s">
+      <c r="G21" s="293"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="346"/>
-      <c r="K21" s="347"/>
-      <c r="L21" s="345" t="s">
+      <c r="J21" s="293"/>
+      <c r="K21" s="294"/>
+      <c r="L21" s="292" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="346"/>
-      <c r="N21" s="347"/>
-      <c r="O21" s="345" t="s">
+      <c r="M21" s="293"/>
+      <c r="N21" s="294"/>
+      <c r="O21" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="346"/>
-      <c r="Q21" s="347"/>
-      <c r="R21" s="344"/>
-      <c r="S21" s="344"/>
-      <c r="T21" s="349"/>
-      <c r="U21" s="353"/>
-      <c r="V21" s="354"/>
-      <c r="W21" s="354"/>
-      <c r="X21" s="355"/>
-      <c r="Y21" s="359"/>
-      <c r="Z21" s="360"/>
-      <c r="AA21" s="361"/>
+      <c r="P21" s="293"/>
+      <c r="Q21" s="294"/>
+      <c r="R21" s="314"/>
+      <c r="S21" s="314"/>
+      <c r="T21" s="316"/>
+      <c r="U21" s="320"/>
+      <c r="V21" s="321"/>
+      <c r="W21" s="321"/>
+      <c r="X21" s="322"/>
+      <c r="Y21" s="326"/>
+      <c r="Z21" s="327"/>
+      <c r="AA21" s="328"/>
       <c r="AD21" s="95"/>
       <c r="AE21" s="106"/>
       <c r="AF21" s="95"/>
       <c r="AG21" s="95"/>
     </row>
     <row r="22" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C22" s="305">
+      <c r="C22" s="346">
         <v>1</v>
       </c>
-      <c r="D22" s="306"/>
-      <c r="E22" s="306"/>
-      <c r="F22" s="307">
+      <c r="D22" s="347"/>
+      <c r="E22" s="347"/>
+      <c r="F22" s="302">
         <v>1</v>
       </c>
-      <c r="G22" s="308"/>
-      <c r="H22" s="309"/>
-      <c r="I22" s="307">
+      <c r="G22" s="301"/>
+      <c r="H22" s="303"/>
+      <c r="I22" s="302">
         <v>1</v>
       </c>
-      <c r="J22" s="308"/>
-      <c r="K22" s="309"/>
-      <c r="L22" s="307">
+      <c r="J22" s="301"/>
+      <c r="K22" s="303"/>
+      <c r="L22" s="302">
         <v>1</v>
       </c>
-      <c r="M22" s="308"/>
-      <c r="N22" s="309"/>
-      <c r="O22" s="308">
+      <c r="M22" s="301"/>
+      <c r="N22" s="303"/>
+      <c r="O22" s="301">
         <v>1</v>
       </c>
-      <c r="P22" s="308"/>
-      <c r="Q22" s="308"/>
-      <c r="R22" s="321">
+      <c r="P22" s="301"/>
+      <c r="Q22" s="301"/>
+      <c r="R22" s="337">
         <f>AVERAGE(F22:Q22)</f>
         <v>1</v>
       </c>
-      <c r="S22" s="322"/>
-      <c r="T22" s="323"/>
-      <c r="U22" s="324">
-        <f>STDEV(F22:Q22)/SQRT(4)</f>
+      <c r="S22" s="338"/>
+      <c r="T22" s="339"/>
+      <c r="U22" s="340">
+        <f>_xlfn.STDEV.S(F22:Q22)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="325"/>
-      <c r="W22" s="325"/>
-      <c r="X22" s="326"/>
-      <c r="Y22" s="327">
+      <c r="V22" s="341"/>
+      <c r="W22" s="341"/>
+      <c r="X22" s="342"/>
+      <c r="Y22" s="343">
         <f>R22-C22</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="328"/>
-      <c r="AA22" s="329"/>
+      <c r="Z22" s="344"/>
+      <c r="AA22" s="345"/>
       <c r="AD22" s="95"/>
       <c r="AE22" s="106"/>
       <c r="AF22" s="95"/>
       <c r="AG22" s="95"/>
     </row>
     <row r="23" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C23" s="313">
+      <c r="C23" s="309">
         <v>2</v>
       </c>
-      <c r="D23" s="313"/>
-      <c r="E23" s="313"/>
-      <c r="F23" s="310">
+      <c r="D23" s="309"/>
+      <c r="E23" s="309"/>
+      <c r="F23" s="297">
         <v>2</v>
       </c>
-      <c r="G23" s="310"/>
-      <c r="H23" s="310"/>
-      <c r="I23" s="310">
+      <c r="G23" s="297"/>
+      <c r="H23" s="297"/>
+      <c r="I23" s="297">
         <v>2</v>
       </c>
-      <c r="J23" s="310"/>
-      <c r="K23" s="310"/>
-      <c r="L23" s="310">
+      <c r="J23" s="297"/>
+      <c r="K23" s="297"/>
+      <c r="L23" s="297">
         <v>2</v>
       </c>
-      <c r="M23" s="310"/>
-      <c r="N23" s="310"/>
-      <c r="O23" s="310">
+      <c r="M23" s="297"/>
+      <c r="N23" s="297"/>
+      <c r="O23" s="297">
         <v>2</v>
       </c>
-      <c r="P23" s="310"/>
-      <c r="Q23" s="310"/>
-      <c r="R23" s="333">
+      <c r="P23" s="297"/>
+      <c r="Q23" s="297"/>
+      <c r="R23" s="296">
         <f t="shared" ref="R23:R34" si="0">AVERAGE(F23:Q23)</f>
         <v>2</v>
       </c>
-      <c r="S23" s="333"/>
-      <c r="T23" s="333"/>
-      <c r="U23" s="319">
-        <f t="shared" ref="U23:U34" si="1">STDEV(F23:Q23)/SQRT(4)</f>
+      <c r="S23" s="296"/>
+      <c r="T23" s="296"/>
+      <c r="U23" s="340">
+        <f t="shared" ref="U23:U34" si="1">_xlfn.STDEV.S(F23:Q23)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="V23" s="319"/>
-      <c r="W23" s="319"/>
-      <c r="X23" s="319"/>
-      <c r="Y23" s="320">
+      <c r="V23" s="341"/>
+      <c r="W23" s="341"/>
+      <c r="X23" s="342"/>
+      <c r="Y23" s="295">
         <f t="shared" ref="Y23:Y34" si="2">R23-C23</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="320"/>
-      <c r="AA23" s="320"/>
+      <c r="Z23" s="295"/>
+      <c r="AA23" s="295"/>
       <c r="AD23" s="95"/>
       <c r="AE23" s="106"/>
       <c r="AF23" s="95"/>
       <c r="AG23" s="95"/>
     </row>
     <row r="24" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C24" s="313">
+      <c r="C24" s="309">
         <v>3</v>
       </c>
-      <c r="D24" s="313"/>
-      <c r="E24" s="313"/>
-      <c r="F24" s="310">
+      <c r="D24" s="309"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="297">
         <v>3</v>
       </c>
-      <c r="G24" s="310"/>
-      <c r="H24" s="310"/>
-      <c r="I24" s="310">
+      <c r="G24" s="297"/>
+      <c r="H24" s="297"/>
+      <c r="I24" s="297">
         <v>3</v>
       </c>
-      <c r="J24" s="310"/>
-      <c r="K24" s="310"/>
-      <c r="L24" s="310">
+      <c r="J24" s="297"/>
+      <c r="K24" s="297"/>
+      <c r="L24" s="297">
         <v>3</v>
       </c>
-      <c r="M24" s="310"/>
-      <c r="N24" s="310"/>
-      <c r="O24" s="310">
+      <c r="M24" s="297"/>
+      <c r="N24" s="297"/>
+      <c r="O24" s="297">
         <v>3</v>
       </c>
-      <c r="P24" s="310"/>
-      <c r="Q24" s="310"/>
-      <c r="R24" s="333">
+      <c r="P24" s="297"/>
+      <c r="Q24" s="297"/>
+      <c r="R24" s="296">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S24" s="333"/>
-      <c r="T24" s="333"/>
-      <c r="U24" s="319">
+      <c r="S24" s="296"/>
+      <c r="T24" s="296"/>
+      <c r="U24" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V24" s="319"/>
-      <c r="W24" s="319"/>
-      <c r="X24" s="319"/>
-      <c r="Y24" s="320">
+      <c r="V24" s="341"/>
+      <c r="W24" s="341"/>
+      <c r="X24" s="342"/>
+      <c r="Y24" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="320"/>
-      <c r="AA24" s="320"/>
+      <c r="Z24" s="295"/>
+      <c r="AA24" s="295"/>
       <c r="AD24" s="95"/>
       <c r="AE24" s="106"/>
       <c r="AF24" s="95"/>
       <c r="AG24" s="95"/>
     </row>
     <row r="25" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C25" s="313">
+      <c r="C25" s="309">
         <v>4</v>
       </c>
-      <c r="D25" s="313"/>
-      <c r="E25" s="313"/>
-      <c r="F25" s="310">
+      <c r="D25" s="309"/>
+      <c r="E25" s="309"/>
+      <c r="F25" s="297">
         <v>4</v>
       </c>
-      <c r="G25" s="310"/>
-      <c r="H25" s="310"/>
-      <c r="I25" s="310">
+      <c r="G25" s="297"/>
+      <c r="H25" s="297"/>
+      <c r="I25" s="297">
         <v>4</v>
       </c>
-      <c r="J25" s="310"/>
-      <c r="K25" s="310"/>
-      <c r="L25" s="310">
+      <c r="J25" s="297"/>
+      <c r="K25" s="297"/>
+      <c r="L25" s="297">
         <v>4</v>
       </c>
-      <c r="M25" s="310"/>
-      <c r="N25" s="310"/>
-      <c r="O25" s="310">
+      <c r="M25" s="297"/>
+      <c r="N25" s="297"/>
+      <c r="O25" s="297">
         <v>4</v>
       </c>
-      <c r="P25" s="310"/>
-      <c r="Q25" s="310"/>
-      <c r="R25" s="333">
+      <c r="P25" s="297"/>
+      <c r="Q25" s="297"/>
+      <c r="R25" s="296">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S25" s="333"/>
-      <c r="T25" s="333"/>
-      <c r="U25" s="319">
+      <c r="S25" s="296"/>
+      <c r="T25" s="296"/>
+      <c r="U25" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V25" s="319"/>
-      <c r="W25" s="319"/>
-      <c r="X25" s="319"/>
-      <c r="Y25" s="320">
+      <c r="V25" s="341"/>
+      <c r="W25" s="341"/>
+      <c r="X25" s="342"/>
+      <c r="Y25" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="320"/>
-      <c r="AA25" s="320"/>
+      <c r="Z25" s="295"/>
+      <c r="AA25" s="295"/>
       <c r="AD25" s="95"/>
       <c r="AE25" s="106"/>
       <c r="AF25" s="95"/>
       <c r="AG25" s="95"/>
     </row>
     <row r="26" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C26" s="313">
+      <c r="C26" s="309">
         <v>5</v>
       </c>
-      <c r="D26" s="313"/>
-      <c r="E26" s="313"/>
-      <c r="F26" s="310">
+      <c r="D26" s="309"/>
+      <c r="E26" s="309"/>
+      <c r="F26" s="297">
         <v>5</v>
       </c>
-      <c r="G26" s="310"/>
-      <c r="H26" s="310"/>
-      <c r="I26" s="310">
+      <c r="G26" s="297"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="297">
         <v>5</v>
       </c>
-      <c r="J26" s="310"/>
-      <c r="K26" s="310"/>
-      <c r="L26" s="310">
+      <c r="J26" s="297"/>
+      <c r="K26" s="297"/>
+      <c r="L26" s="297">
         <v>5</v>
       </c>
-      <c r="M26" s="310"/>
-      <c r="N26" s="310"/>
-      <c r="O26" s="310">
+      <c r="M26" s="297"/>
+      <c r="N26" s="297"/>
+      <c r="O26" s="297">
         <v>5</v>
       </c>
-      <c r="P26" s="310"/>
-      <c r="Q26" s="310"/>
-      <c r="R26" s="333">
+      <c r="P26" s="297"/>
+      <c r="Q26" s="297"/>
+      <c r="R26" s="296">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S26" s="333"/>
-      <c r="T26" s="333"/>
-      <c r="U26" s="319">
+      <c r="S26" s="296"/>
+      <c r="T26" s="296"/>
+      <c r="U26" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V26" s="319"/>
-      <c r="W26" s="319"/>
-      <c r="X26" s="319"/>
-      <c r="Y26" s="320">
+      <c r="V26" s="341"/>
+      <c r="W26" s="341"/>
+      <c r="X26" s="342"/>
+      <c r="Y26" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="320"/>
-      <c r="AA26" s="320"/>
+      <c r="Z26" s="295"/>
+      <c r="AA26" s="295"/>
       <c r="AD26" s="95"/>
       <c r="AE26" s="106"/>
       <c r="AF26" s="95"/>
       <c r="AG26" s="95"/>
     </row>
     <row r="27" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C27" s="313">
+      <c r="C27" s="309">
         <v>7</v>
       </c>
-      <c r="D27" s="313"/>
-      <c r="E27" s="313"/>
-      <c r="F27" s="310">
+      <c r="D27" s="309"/>
+      <c r="E27" s="309"/>
+      <c r="F27" s="297">
         <v>7</v>
       </c>
-      <c r="G27" s="310"/>
-      <c r="H27" s="310"/>
-      <c r="I27" s="310">
+      <c r="G27" s="297"/>
+      <c r="H27" s="297"/>
+      <c r="I27" s="297">
         <v>7</v>
       </c>
-      <c r="J27" s="310"/>
-      <c r="K27" s="310"/>
-      <c r="L27" s="310">
+      <c r="J27" s="297"/>
+      <c r="K27" s="297"/>
+      <c r="L27" s="297">
         <v>7</v>
       </c>
-      <c r="M27" s="310"/>
-      <c r="N27" s="310"/>
-      <c r="O27" s="310">
+      <c r="M27" s="297"/>
+      <c r="N27" s="297"/>
+      <c r="O27" s="297">
         <v>7</v>
       </c>
-      <c r="P27" s="310"/>
-      <c r="Q27" s="310"/>
-      <c r="R27" s="333">
+      <c r="P27" s="297"/>
+      <c r="Q27" s="297"/>
+      <c r="R27" s="296">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S27" s="333"/>
-      <c r="T27" s="333"/>
-      <c r="U27" s="319">
+      <c r="S27" s="296"/>
+      <c r="T27" s="296"/>
+      <c r="U27" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V27" s="319"/>
-      <c r="W27" s="319"/>
-      <c r="X27" s="319"/>
-      <c r="Y27" s="320">
+      <c r="V27" s="341"/>
+      <c r="W27" s="341"/>
+      <c r="X27" s="342"/>
+      <c r="Y27" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="320"/>
-      <c r="AA27" s="320"/>
+      <c r="Z27" s="295"/>
+      <c r="AA27" s="295"/>
       <c r="AD27" s="95"/>
       <c r="AE27" s="106"/>
       <c r="AF27" s="95"/>
       <c r="AG27" s="95"/>
     </row>
     <row r="28" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C28" s="313">
+      <c r="C28" s="309">
         <v>10</v>
       </c>
-      <c r="D28" s="313"/>
-      <c r="E28" s="313"/>
-      <c r="F28" s="310">
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="297">
         <v>10</v>
       </c>
-      <c r="G28" s="310"/>
-      <c r="H28" s="310"/>
-      <c r="I28" s="310">
+      <c r="G28" s="297"/>
+      <c r="H28" s="297"/>
+      <c r="I28" s="297">
         <v>10</v>
       </c>
-      <c r="J28" s="310"/>
-      <c r="K28" s="310"/>
-      <c r="L28" s="310">
+      <c r="J28" s="297"/>
+      <c r="K28" s="297"/>
+      <c r="L28" s="297">
         <v>10</v>
       </c>
-      <c r="M28" s="310"/>
-      <c r="N28" s="310"/>
-      <c r="O28" s="310">
+      <c r="M28" s="297"/>
+      <c r="N28" s="297"/>
+      <c r="O28" s="297">
         <v>10</v>
       </c>
-      <c r="P28" s="310"/>
-      <c r="Q28" s="310"/>
-      <c r="R28" s="333">
+      <c r="P28" s="297"/>
+      <c r="Q28" s="297"/>
+      <c r="R28" s="296">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S28" s="333"/>
-      <c r="T28" s="333"/>
-      <c r="U28" s="319">
+      <c r="S28" s="296"/>
+      <c r="T28" s="296"/>
+      <c r="U28" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V28" s="319"/>
-      <c r="W28" s="319"/>
-      <c r="X28" s="319"/>
-      <c r="Y28" s="320">
+      <c r="V28" s="341"/>
+      <c r="W28" s="341"/>
+      <c r="X28" s="342"/>
+      <c r="Y28" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="320"/>
-      <c r="AA28" s="320"/>
+      <c r="Z28" s="295"/>
+      <c r="AA28" s="295"/>
       <c r="AD28" s="95"/>
       <c r="AE28" s="106"/>
       <c r="AF28" s="95"/>
       <c r="AG28" s="95"/>
     </row>
     <row r="29" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C29" s="313">
+      <c r="C29" s="309">
         <v>12</v>
       </c>
-      <c r="D29" s="313"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="310">
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="297">
         <v>12</v>
       </c>
-      <c r="G29" s="310"/>
-      <c r="H29" s="310"/>
-      <c r="I29" s="310">
+      <c r="G29" s="297"/>
+      <c r="H29" s="297"/>
+      <c r="I29" s="297">
         <v>12</v>
       </c>
-      <c r="J29" s="310"/>
-      <c r="K29" s="310"/>
-      <c r="L29" s="310">
+      <c r="J29" s="297"/>
+      <c r="K29" s="297"/>
+      <c r="L29" s="297">
         <v>12</v>
       </c>
-      <c r="M29" s="310"/>
-      <c r="N29" s="310"/>
-      <c r="O29" s="310">
+      <c r="M29" s="297"/>
+      <c r="N29" s="297"/>
+      <c r="O29" s="297">
         <v>12</v>
       </c>
-      <c r="P29" s="310"/>
-      <c r="Q29" s="310"/>
-      <c r="R29" s="333">
+      <c r="P29" s="297"/>
+      <c r="Q29" s="297"/>
+      <c r="R29" s="296">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="S29" s="333"/>
-      <c r="T29" s="333"/>
-      <c r="U29" s="319">
+      <c r="S29" s="296"/>
+      <c r="T29" s="296"/>
+      <c r="U29" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V29" s="319"/>
-      <c r="W29" s="319"/>
-      <c r="X29" s="319"/>
-      <c r="Y29" s="320">
+      <c r="V29" s="341"/>
+      <c r="W29" s="341"/>
+      <c r="X29" s="342"/>
+      <c r="Y29" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="320"/>
-      <c r="AA29" s="320"/>
+      <c r="Z29" s="295"/>
+      <c r="AA29" s="295"/>
       <c r="AD29" s="95"/>
       <c r="AE29" s="106"/>
       <c r="AF29" s="95"/>
       <c r="AG29" s="95"/>
     </row>
     <row r="30" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C30" s="313">
+      <c r="C30" s="309">
         <v>15</v>
       </c>
-      <c r="D30" s="313"/>
-      <c r="E30" s="313"/>
-      <c r="F30" s="310">
+      <c r="D30" s="309"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="297">
         <v>15</v>
       </c>
-      <c r="G30" s="310"/>
-      <c r="H30" s="310"/>
-      <c r="I30" s="310">
+      <c r="G30" s="297"/>
+      <c r="H30" s="297"/>
+      <c r="I30" s="297">
         <v>15</v>
       </c>
-      <c r="J30" s="310"/>
-      <c r="K30" s="310"/>
-      <c r="L30" s="310">
+      <c r="J30" s="297"/>
+      <c r="K30" s="297"/>
+      <c r="L30" s="297">
         <v>15</v>
       </c>
-      <c r="M30" s="310"/>
-      <c r="N30" s="310"/>
-      <c r="O30" s="310">
+      <c r="M30" s="297"/>
+      <c r="N30" s="297"/>
+      <c r="O30" s="297">
         <v>15</v>
       </c>
-      <c r="P30" s="310"/>
-      <c r="Q30" s="310"/>
-      <c r="R30" s="333">
+      <c r="P30" s="297"/>
+      <c r="Q30" s="297"/>
+      <c r="R30" s="296">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S30" s="333"/>
-      <c r="T30" s="333"/>
-      <c r="U30" s="319">
+      <c r="S30" s="296"/>
+      <c r="T30" s="296"/>
+      <c r="U30" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V30" s="319"/>
-      <c r="W30" s="319"/>
-      <c r="X30" s="319"/>
-      <c r="Y30" s="320">
+      <c r="V30" s="341"/>
+      <c r="W30" s="341"/>
+      <c r="X30" s="342"/>
+      <c r="Y30" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="320"/>
-      <c r="AA30" s="320"/>
+      <c r="Z30" s="295"/>
+      <c r="AA30" s="295"/>
       <c r="AD30" s="95"/>
       <c r="AE30" s="106"/>
       <c r="AF30" s="95"/>
       <c r="AG30" s="95"/>
     </row>
     <row r="31" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C31" s="313">
+      <c r="C31" s="309">
         <v>18</v>
       </c>
-      <c r="D31" s="313"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="310">
+      <c r="D31" s="309"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="297">
         <v>18</v>
       </c>
-      <c r="G31" s="310"/>
-      <c r="H31" s="310"/>
-      <c r="I31" s="310">
+      <c r="G31" s="297"/>
+      <c r="H31" s="297"/>
+      <c r="I31" s="297">
         <v>18</v>
       </c>
-      <c r="J31" s="310"/>
-      <c r="K31" s="310"/>
-      <c r="L31" s="310">
+      <c r="J31" s="297"/>
+      <c r="K31" s="297"/>
+      <c r="L31" s="297">
         <v>18</v>
       </c>
-      <c r="M31" s="310"/>
-      <c r="N31" s="310"/>
-      <c r="O31" s="310">
+      <c r="M31" s="297"/>
+      <c r="N31" s="297"/>
+      <c r="O31" s="297">
         <v>18</v>
       </c>
-      <c r="P31" s="310"/>
-      <c r="Q31" s="310"/>
-      <c r="R31" s="333">
+      <c r="P31" s="297"/>
+      <c r="Q31" s="297"/>
+      <c r="R31" s="296">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S31" s="333"/>
-      <c r="T31" s="333"/>
-      <c r="U31" s="319">
+      <c r="S31" s="296"/>
+      <c r="T31" s="296"/>
+      <c r="U31" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V31" s="319"/>
-      <c r="W31" s="319"/>
-      <c r="X31" s="319"/>
-      <c r="Y31" s="320">
+      <c r="V31" s="341"/>
+      <c r="W31" s="341"/>
+      <c r="X31" s="342"/>
+      <c r="Y31" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="320"/>
-      <c r="AA31" s="320"/>
+      <c r="Z31" s="295"/>
+      <c r="AA31" s="295"/>
       <c r="AD31" s="95"/>
       <c r="AE31" s="106"/>
       <c r="AF31" s="95"/>
       <c r="AG31" s="95"/>
     </row>
     <row r="32" spans="1:55" customFormat="1" ht="21" customHeight="1">
-      <c r="C32" s="313">
+      <c r="C32" s="309">
         <v>20</v>
       </c>
-      <c r="D32" s="313"/>
-      <c r="E32" s="313"/>
-      <c r="F32" s="310">
+      <c r="D32" s="309"/>
+      <c r="E32" s="309"/>
+      <c r="F32" s="297">
         <v>20</v>
       </c>
-      <c r="G32" s="310"/>
-      <c r="H32" s="310"/>
-      <c r="I32" s="310">
+      <c r="G32" s="297"/>
+      <c r="H32" s="297"/>
+      <c r="I32" s="297">
         <v>20</v>
       </c>
-      <c r="J32" s="310"/>
-      <c r="K32" s="310"/>
-      <c r="L32" s="310">
+      <c r="J32" s="297"/>
+      <c r="K32" s="297"/>
+      <c r="L32" s="297">
         <v>20</v>
       </c>
-      <c r="M32" s="310"/>
-      <c r="N32" s="310"/>
-      <c r="O32" s="310">
+      <c r="M32" s="297"/>
+      <c r="N32" s="297"/>
+      <c r="O32" s="297">
         <v>20</v>
       </c>
-      <c r="P32" s="310"/>
-      <c r="Q32" s="310"/>
-      <c r="R32" s="333">
+      <c r="P32" s="297"/>
+      <c r="Q32" s="297"/>
+      <c r="R32" s="296">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="S32" s="333"/>
-      <c r="T32" s="333"/>
-      <c r="U32" s="319">
+      <c r="S32" s="296"/>
+      <c r="T32" s="296"/>
+      <c r="U32" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V32" s="319"/>
-      <c r="W32" s="319"/>
-      <c r="X32" s="319"/>
-      <c r="Y32" s="320">
+      <c r="V32" s="341"/>
+      <c r="W32" s="341"/>
+      <c r="X32" s="342"/>
+      <c r="Y32" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="320"/>
-      <c r="AA32" s="320"/>
+      <c r="Z32" s="295"/>
+      <c r="AA32" s="295"/>
       <c r="AD32" s="95"/>
       <c r="AE32" s="106"/>
       <c r="AF32" s="95"/>
       <c r="AG32" s="95"/>
     </row>
     <row r="33" spans="1:33" customFormat="1" ht="21" customHeight="1">
-      <c r="C33" s="313">
+      <c r="C33" s="309">
         <v>25</v>
       </c>
-      <c r="D33" s="313"/>
-      <c r="E33" s="313"/>
-      <c r="F33" s="310">
+      <c r="D33" s="309"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="297">
         <v>25</v>
       </c>
-      <c r="G33" s="310"/>
-      <c r="H33" s="310"/>
-      <c r="I33" s="310">
+      <c r="G33" s="297"/>
+      <c r="H33" s="297"/>
+      <c r="I33" s="297">
         <v>25</v>
       </c>
-      <c r="J33" s="310"/>
-      <c r="K33" s="310"/>
-      <c r="L33" s="310">
+      <c r="J33" s="297"/>
+      <c r="K33" s="297"/>
+      <c r="L33" s="297">
         <v>25</v>
       </c>
-      <c r="M33" s="310"/>
-      <c r="N33" s="310"/>
-      <c r="O33" s="310">
+      <c r="M33" s="297"/>
+      <c r="N33" s="297"/>
+      <c r="O33" s="297">
         <v>25</v>
       </c>
-      <c r="P33" s="310"/>
-      <c r="Q33" s="310"/>
-      <c r="R33" s="333">
+      <c r="P33" s="297"/>
+      <c r="Q33" s="297"/>
+      <c r="R33" s="296">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="S33" s="333"/>
-      <c r="T33" s="333"/>
-      <c r="U33" s="319">
+      <c r="S33" s="296"/>
+      <c r="T33" s="296"/>
+      <c r="U33" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V33" s="319"/>
-      <c r="W33" s="319"/>
-      <c r="X33" s="319"/>
-      <c r="Y33" s="320">
+      <c r="V33" s="341"/>
+      <c r="W33" s="341"/>
+      <c r="X33" s="342"/>
+      <c r="Y33" s="295">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="320"/>
-      <c r="AA33" s="320"/>
+      <c r="Z33" s="295"/>
+      <c r="AA33" s="295"/>
       <c r="AD33" s="95"/>
       <c r="AE33" s="106"/>
       <c r="AF33" s="95"/>
       <c r="AG33" s="95"/>
     </row>
     <row r="34" spans="1:33" customFormat="1" ht="21" customHeight="1">
-      <c r="C34" s="367">
+      <c r="C34" s="307">
         <v>50</v>
       </c>
-      <c r="D34" s="368"/>
-      <c r="E34" s="368"/>
-      <c r="F34" s="330">
+      <c r="D34" s="308"/>
+      <c r="E34" s="308"/>
+      <c r="F34" s="298">
         <v>50</v>
       </c>
-      <c r="G34" s="331"/>
-      <c r="H34" s="332"/>
-      <c r="I34" s="330">
+      <c r="G34" s="299"/>
+      <c r="H34" s="300"/>
+      <c r="I34" s="298">
         <v>50</v>
       </c>
-      <c r="J34" s="331"/>
-      <c r="K34" s="332"/>
-      <c r="L34" s="330">
+      <c r="J34" s="299"/>
+      <c r="K34" s="300"/>
+      <c r="L34" s="298">
         <v>50</v>
       </c>
-      <c r="M34" s="331"/>
-      <c r="N34" s="332"/>
-      <c r="O34" s="331">
+      <c r="M34" s="299"/>
+      <c r="N34" s="300"/>
+      <c r="O34" s="299">
         <v>50</v>
       </c>
-      <c r="P34" s="331"/>
-      <c r="Q34" s="331"/>
+      <c r="P34" s="299"/>
+      <c r="Q34" s="299"/>
       <c r="R34" s="334">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="S34" s="335"/>
       <c r="T34" s="336"/>
-      <c r="U34" s="337">
+      <c r="U34" s="340">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V34" s="338"/>
-      <c r="W34" s="338"/>
-      <c r="X34" s="339"/>
-      <c r="Y34" s="369">
+      <c r="V34" s="341"/>
+      <c r="W34" s="341"/>
+      <c r="X34" s="342"/>
+      <c r="Y34" s="289">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="370"/>
-      <c r="AA34" s="371"/>
+      <c r="Z34" s="290"/>
+      <c r="AA34" s="291"/>
       <c r="AD34" s="95"/>
       <c r="AE34" s="106"/>
       <c r="AF34" s="95"/>
@@ -9620,6 +9608,144 @@
     </row>
   </sheetData>
   <mergeCells count="162">
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="F5:Z5"/>
+    <mergeCell ref="O9:AA9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D15:R15"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="O7:V7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="S15:U16"/>
+    <mergeCell ref="V15:X16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G11:P11"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="U20:X21"/>
+    <mergeCell ref="Y20:AA21"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:P12"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
     <mergeCell ref="Y34:AA34"/>
     <mergeCell ref="F20:Q20"/>
     <mergeCell ref="Y25:AA25"/>
@@ -9644,144 +9770,6 @@
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="U20:X21"/>
-    <mergeCell ref="Y20:AA21"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:P12"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="O7:V7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="S15:U16"/>
-    <mergeCell ref="V15:X16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G11:P11"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="F5:Z5"/>
-    <mergeCell ref="O9:AA9"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D15:R15"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0" header="0.3" footer="0"/>
   <pageSetup scale="95" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -10162,32 +10150,32 @@
     <row r="1" spans="1:256" ht="12.95" customHeight="1"/>
     <row r="2" spans="1:256" ht="12.95" customHeight="1"/>
     <row r="3" spans="1:256" ht="35.25" customHeight="1">
-      <c r="A3" s="375" t="s">
+      <c r="A3" s="371" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="375"/>
-      <c r="C3" s="375"/>
-      <c r="D3" s="375"/>
-      <c r="E3" s="375"/>
-      <c r="F3" s="375"/>
-      <c r="G3" s="375"/>
-      <c r="H3" s="375"/>
-      <c r="I3" s="375"/>
-      <c r="J3" s="375"/>
-      <c r="K3" s="375"/>
-      <c r="L3" s="375"/>
-      <c r="M3" s="375"/>
-      <c r="N3" s="375"/>
-      <c r="O3" s="375"/>
-      <c r="P3" s="375"/>
-      <c r="Q3" s="375"/>
-      <c r="R3" s="375"/>
-      <c r="S3" s="375"/>
-      <c r="T3" s="375"/>
-      <c r="U3" s="375"/>
-      <c r="V3" s="375"/>
-      <c r="W3" s="375"/>
-      <c r="X3" s="375"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="371"/>
+      <c r="H3" s="371"/>
+      <c r="I3" s="371"/>
+      <c r="J3" s="371"/>
+      <c r="K3" s="371"/>
+      <c r="L3" s="371"/>
+      <c r="M3" s="371"/>
+      <c r="N3" s="371"/>
+      <c r="O3" s="371"/>
+      <c r="P3" s="371"/>
+      <c r="Q3" s="371"/>
+      <c r="R3" s="371"/>
+      <c r="S3" s="371"/>
+      <c r="T3" s="371"/>
+      <c r="U3" s="371"/>
+      <c r="V3" s="371"/>
+      <c r="W3" s="371"/>
+      <c r="X3" s="371"/>
     </row>
     <row r="4" spans="1:256" ht="19.5" customHeight="1">
       <c r="A4" s="57"/>
@@ -13075,12 +13063,12 @@
       <c r="I15" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="376">
+      <c r="J15" s="372">
         <f>'Data Record'!O7</f>
         <v>456</v>
       </c>
-      <c r="K15" s="376"/>
-      <c r="L15" s="376"/>
+      <c r="K15" s="372"/>
+      <c r="L15" s="372"/>
       <c r="M15" s="197"/>
       <c r="N15" s="197"/>
       <c r="O15" s="58"/>
@@ -14142,12 +14130,12 @@
       <c r="V19" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="W19" s="377">
+      <c r="W19" s="373">
         <f>'Data Record'!O2</f>
         <v>42350</v>
       </c>
-      <c r="X19" s="377"/>
-      <c r="Y19" s="377"/>
+      <c r="X19" s="373"/>
+      <c r="Y19" s="373"/>
       <c r="Z19" s="202"/>
       <c r="AA19" s="202"/>
       <c r="AB19" s="58"/>
@@ -14413,12 +14401,12 @@
       <c r="V20" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="W20" s="377">
+      <c r="W20" s="373">
         <f>'Data Record'!Y2</f>
         <v>42350</v>
       </c>
-      <c r="X20" s="377"/>
-      <c r="Y20" s="377"/>
+      <c r="X20" s="373"/>
+      <c r="Y20" s="373"/>
       <c r="Z20" s="202"/>
       <c r="AA20" s="202"/>
       <c r="AB20" s="58"/>
@@ -14684,12 +14672,12 @@
       <c r="V21" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="W21" s="378">
+      <c r="W21" s="374">
         <f>W20+365</f>
         <v>42715</v>
       </c>
-      <c r="X21" s="378"/>
-      <c r="Y21" s="378"/>
+      <c r="X21" s="374"/>
+      <c r="Y21" s="374"/>
       <c r="Z21" s="205"/>
       <c r="AA21" s="205"/>
       <c r="AB21" s="58"/>
@@ -18308,12 +18296,12 @@
       <c r="G35" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="379">
+      <c r="H35" s="375">
         <f>W20+1</f>
         <v>42351</v>
       </c>
-      <c r="I35" s="379"/>
-      <c r="J35" s="379"/>
+      <c r="I35" s="375"/>
+      <c r="J35" s="375"/>
       <c r="K35" s="207"/>
       <c r="L35" s="184"/>
       <c r="M35" s="184"/>
@@ -18591,17 +18579,17 @@
         <v>3</v>
       </c>
       <c r="R36" s="184"/>
-      <c r="S36" s="372" t="str">
+      <c r="S36" s="368" t="str">
         <f>IF(Q36=1,"( Mr.Sombut Srikampa )",IF(Q36=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="T36" s="372"/>
-      <c r="U36" s="372"/>
-      <c r="V36" s="372"/>
-      <c r="W36" s="372"/>
-      <c r="X36" s="372"/>
-      <c r="Y36" s="372"/>
-      <c r="Z36" s="372"/>
+      <c r="T36" s="368"/>
+      <c r="U36" s="368"/>
+      <c r="V36" s="368"/>
+      <c r="W36" s="368"/>
+      <c r="X36" s="368"/>
+      <c r="Y36" s="368"/>
+      <c r="Z36" s="368"/>
       <c r="AA36" s="79"/>
       <c r="AB36" s="58"/>
       <c r="AC36" s="58"/>
@@ -18852,16 +18840,16 @@
       <c r="P37" s="184"/>
       <c r="Q37" s="184"/>
       <c r="R37" s="184"/>
-      <c r="S37" s="373" t="s">
+      <c r="S37" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="T37" s="373"/>
-      <c r="U37" s="373"/>
-      <c r="V37" s="373"/>
-      <c r="W37" s="373"/>
-      <c r="X37" s="373"/>
-      <c r="Y37" s="373"/>
-      <c r="Z37" s="373"/>
+      <c r="T37" s="369"/>
+      <c r="U37" s="369"/>
+      <c r="V37" s="369"/>
+      <c r="W37" s="369"/>
+      <c r="X37" s="369"/>
+      <c r="Y37" s="369"/>
+      <c r="Z37" s="369"/>
       <c r="AA37" s="79"/>
       <c r="AB37" s="61"/>
       <c r="AC37" s="214"/>
@@ -19352,28 +19340,28 @@
       <c r="IV38" s="58"/>
     </row>
     <row r="39" spans="1:256">
-      <c r="A39" s="374"/>
-      <c r="B39" s="374"/>
-      <c r="C39" s="374"/>
-      <c r="D39" s="374"/>
-      <c r="E39" s="374"/>
-      <c r="F39" s="374"/>
-      <c r="G39" s="374"/>
-      <c r="H39" s="374"/>
-      <c r="I39" s="374"/>
-      <c r="J39" s="374"/>
-      <c r="K39" s="374"/>
-      <c r="L39" s="374"/>
-      <c r="M39" s="374"/>
-      <c r="N39" s="374"/>
-      <c r="O39" s="374"/>
-      <c r="P39" s="374"/>
-      <c r="Q39" s="374"/>
-      <c r="R39" s="374"/>
-      <c r="S39" s="374"/>
-      <c r="T39" s="374"/>
-      <c r="U39" s="374"/>
-      <c r="V39" s="374"/>
+      <c r="A39" s="370"/>
+      <c r="B39" s="370"/>
+      <c r="C39" s="370"/>
+      <c r="D39" s="370"/>
+      <c r="E39" s="370"/>
+      <c r="F39" s="370"/>
+      <c r="G39" s="370"/>
+      <c r="H39" s="370"/>
+      <c r="I39" s="370"/>
+      <c r="J39" s="370"/>
+      <c r="K39" s="370"/>
+      <c r="L39" s="370"/>
+      <c r="M39" s="370"/>
+      <c r="N39" s="370"/>
+      <c r="O39" s="370"/>
+      <c r="P39" s="370"/>
+      <c r="Q39" s="370"/>
+      <c r="R39" s="370"/>
+      <c r="S39" s="370"/>
+      <c r="T39" s="370"/>
+      <c r="U39" s="370"/>
+      <c r="V39" s="370"/>
       <c r="W39" s="81"/>
       <c r="X39" s="58"/>
       <c r="Y39" s="58"/>
@@ -19725,30 +19713,30 @@
       <c r="V2" s="56"/>
     </row>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="385" t="s">
+      <c r="A3" s="376" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="385"/>
-      <c r="C3" s="385"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="385"/>
-      <c r="F3" s="385"/>
-      <c r="G3" s="385"/>
-      <c r="H3" s="385"/>
-      <c r="I3" s="385"/>
-      <c r="J3" s="385"/>
-      <c r="K3" s="385"/>
-      <c r="L3" s="385"/>
-      <c r="M3" s="385"/>
-      <c r="N3" s="385"/>
-      <c r="O3" s="385"/>
-      <c r="P3" s="385"/>
-      <c r="Q3" s="385"/>
-      <c r="R3" s="385"/>
-      <c r="S3" s="385"/>
-      <c r="T3" s="385"/>
-      <c r="U3" s="385"/>
-      <c r="V3" s="385"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="376"/>
+      <c r="M3" s="376"/>
+      <c r="N3" s="376"/>
+      <c r="O3" s="376"/>
+      <c r="P3" s="376"/>
+      <c r="Q3" s="376"/>
+      <c r="R3" s="376"/>
+      <c r="S3" s="376"/>
+      <c r="T3" s="376"/>
+      <c r="U3" s="376"/>
+      <c r="V3" s="376"/>
     </row>
     <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="57"/>
@@ -19799,11 +19787,11 @@
       <c r="P5" s="65"/>
       <c r="Q5" s="65"/>
       <c r="R5" s="56"/>
-      <c r="S5" s="402" t="s">
+      <c r="S5" s="394" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="402"/>
-      <c r="U5" s="402"/>
+      <c r="T5" s="394"/>
+      <c r="U5" s="394"/>
       <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1">
@@ -19862,16 +19850,16 @@
       <c r="E8" s="243"/>
       <c r="F8" s="243"/>
       <c r="G8" s="243"/>
-      <c r="H8" s="398" t="s">
+      <c r="H8" s="390" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="398"/>
-      <c r="J8" s="398"/>
-      <c r="K8" s="398"/>
-      <c r="L8" s="398"/>
-      <c r="M8" s="398"/>
-      <c r="N8" s="398"/>
-      <c r="O8" s="398"/>
+      <c r="I8" s="390"/>
+      <c r="J8" s="390"/>
+      <c r="K8" s="390"/>
+      <c r="L8" s="390"/>
+      <c r="M8" s="390"/>
+      <c r="N8" s="390"/>
+      <c r="O8" s="390"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="66"/>
@@ -19888,14 +19876,14 @@
       <c r="E9" s="243"/>
       <c r="F9" s="243"/>
       <c r="G9" s="243"/>
-      <c r="H9" s="398"/>
-      <c r="I9" s="398"/>
-      <c r="J9" s="398"/>
-      <c r="K9" s="398"/>
-      <c r="L9" s="398"/>
-      <c r="M9" s="398"/>
-      <c r="N9" s="398"/>
-      <c r="O9" s="398"/>
+      <c r="H9" s="390"/>
+      <c r="I9" s="390"/>
+      <c r="J9" s="390"/>
+      <c r="K9" s="390"/>
+      <c r="L9" s="390"/>
+      <c r="M9" s="390"/>
+      <c r="N9" s="390"/>
+      <c r="O9" s="390"/>
       <c r="P9" s="66"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="66"/>
@@ -19930,70 +19918,70 @@
     </row>
     <row r="11" spans="1:22" ht="21" customHeight="1">
       <c r="A11" s="59"/>
-      <c r="B11" s="399" t="s">
+      <c r="B11" s="391" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="400"/>
-      <c r="D11" s="400"/>
-      <c r="E11" s="400"/>
-      <c r="F11" s="400"/>
-      <c r="G11" s="401"/>
-      <c r="H11" s="399" t="s">
+      <c r="C11" s="392"/>
+      <c r="D11" s="392"/>
+      <c r="E11" s="392"/>
+      <c r="F11" s="392"/>
+      <c r="G11" s="393"/>
+      <c r="H11" s="391" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="400"/>
-      <c r="J11" s="401"/>
-      <c r="K11" s="399" t="s">
+      <c r="I11" s="392"/>
+      <c r="J11" s="393"/>
+      <c r="K11" s="391" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="400"/>
-      <c r="M11" s="401"/>
-      <c r="N11" s="399" t="s">
+      <c r="L11" s="392"/>
+      <c r="M11" s="393"/>
+      <c r="N11" s="391" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="400"/>
-      <c r="P11" s="400"/>
-      <c r="Q11" s="401"/>
-      <c r="R11" s="400" t="s">
+      <c r="O11" s="392"/>
+      <c r="P11" s="392"/>
+      <c r="Q11" s="393"/>
+      <c r="R11" s="392" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="400"/>
-      <c r="T11" s="400"/>
-      <c r="U11" s="401"/>
+      <c r="S11" s="392"/>
+      <c r="T11" s="392"/>
+      <c r="U11" s="393"/>
       <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1">
       <c r="A12" s="59"/>
-      <c r="B12" s="387" t="s">
+      <c r="B12" s="379" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="388"/>
-      <c r="D12" s="388"/>
-      <c r="E12" s="388"/>
-      <c r="F12" s="388"/>
-      <c r="G12" s="388"/>
-      <c r="H12" s="389" t="s">
+      <c r="C12" s="380"/>
+      <c r="D12" s="380"/>
+      <c r="E12" s="380"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="380"/>
+      <c r="H12" s="381" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="390"/>
-      <c r="J12" s="391"/>
-      <c r="K12" s="389">
+      <c r="I12" s="382"/>
+      <c r="J12" s="383"/>
+      <c r="K12" s="381">
         <v>60711</v>
       </c>
-      <c r="L12" s="390"/>
-      <c r="M12" s="391"/>
-      <c r="N12" s="392" t="s">
+      <c r="L12" s="382"/>
+      <c r="M12" s="383"/>
+      <c r="N12" s="384" t="s">
         <v>136</v>
       </c>
-      <c r="O12" s="393"/>
-      <c r="P12" s="393"/>
-      <c r="Q12" s="394"/>
-      <c r="R12" s="395">
+      <c r="O12" s="385"/>
+      <c r="P12" s="385"/>
+      <c r="Q12" s="386"/>
+      <c r="R12" s="387">
         <v>42336</v>
       </c>
-      <c r="S12" s="396"/>
-      <c r="T12" s="396"/>
-      <c r="U12" s="397"/>
+      <c r="S12" s="388"/>
+      <c r="T12" s="388"/>
+      <c r="U12" s="389"/>
       <c r="V12" s="73"/>
     </row>
     <row r="13" spans="1:22" ht="17.100000000000001" customHeight="1">
@@ -20134,10 +20122,10 @@
       <c r="G18" s="243"/>
       <c r="H18" s="243"/>
       <c r="I18" s="267"/>
-      <c r="J18" s="386"/>
-      <c r="K18" s="380"/>
-      <c r="L18" s="380"/>
-      <c r="M18" s="380"/>
+      <c r="J18" s="377"/>
+      <c r="K18" s="378"/>
+      <c r="L18" s="378"/>
+      <c r="M18" s="378"/>
       <c r="N18" s="58"/>
       <c r="O18" s="72"/>
       <c r="P18" s="72"/>
@@ -20158,10 +20146,10 @@
       <c r="G19" s="243"/>
       <c r="H19" s="243"/>
       <c r="I19" s="267"/>
-      <c r="J19" s="386"/>
-      <c r="K19" s="380"/>
-      <c r="L19" s="380"/>
-      <c r="M19" s="380"/>
+      <c r="J19" s="377"/>
+      <c r="K19" s="378"/>
+      <c r="L19" s="378"/>
+      <c r="M19" s="378"/>
       <c r="N19" s="58"/>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
@@ -20182,10 +20170,10 @@
       <c r="G20" s="243"/>
       <c r="H20" s="243"/>
       <c r="I20" s="267"/>
-      <c r="J20" s="380"/>
-      <c r="K20" s="380"/>
-      <c r="L20" s="380"/>
-      <c r="M20" s="380"/>
+      <c r="J20" s="378"/>
+      <c r="K20" s="378"/>
+      <c r="L20" s="378"/>
+      <c r="M20" s="378"/>
       <c r="N20" s="58"/>
       <c r="O20" s="72"/>
       <c r="P20" s="72"/>
@@ -20634,16 +20622,16 @@
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
       <c r="E39" s="71"/>
-      <c r="F39" s="381"/>
-      <c r="G39" s="381"/>
-      <c r="H39" s="381"/>
-      <c r="I39" s="381"/>
+      <c r="F39" s="395"/>
+      <c r="G39" s="395"/>
+      <c r="H39" s="395"/>
+      <c r="I39" s="395"/>
       <c r="J39" s="284"/>
       <c r="K39" s="71"/>
-      <c r="L39" s="382"/>
-      <c r="M39" s="382"/>
-      <c r="N39" s="382"/>
-      <c r="O39" s="382"/>
+      <c r="L39" s="396"/>
+      <c r="M39" s="396"/>
+      <c r="N39" s="396"/>
+      <c r="O39" s="396"/>
       <c r="P39" s="64"/>
       <c r="Q39" s="64"/>
       <c r="R39" s="64"/>
@@ -20692,11 +20680,11 @@
       <c r="M41" s="69"/>
       <c r="N41" s="69"/>
       <c r="O41" s="69"/>
-      <c r="P41" s="383"/>
-      <c r="Q41" s="383"/>
-      <c r="R41" s="383"/>
-      <c r="S41" s="383"/>
-      <c r="T41" s="383"/>
+      <c r="P41" s="397"/>
+      <c r="Q41" s="397"/>
+      <c r="R41" s="397"/>
+      <c r="S41" s="397"/>
+      <c r="T41" s="397"/>
       <c r="U41" s="79"/>
       <c r="V41" s="79"/>
     </row>
@@ -20704,11 +20692,11 @@
       <c r="A42" s="59"/>
       <c r="B42" s="58"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="384"/>
-      <c r="E42" s="384"/>
-      <c r="F42" s="384"/>
-      <c r="G42" s="384"/>
-      <c r="H42" s="384"/>
+      <c r="D42" s="398"/>
+      <c r="E42" s="398"/>
+      <c r="F42" s="398"/>
+      <c r="G42" s="398"/>
+      <c r="H42" s="398"/>
       <c r="I42" s="58"/>
       <c r="J42" s="58"/>
       <c r="K42" s="69"/>
@@ -20725,26 +20713,26 @@
       <c r="V42" s="79"/>
     </row>
     <row r="43" spans="1:22" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="374"/>
-      <c r="B43" s="374"/>
-      <c r="C43" s="374"/>
-      <c r="D43" s="374"/>
-      <c r="E43" s="374"/>
-      <c r="F43" s="374"/>
-      <c r="G43" s="374"/>
-      <c r="H43" s="374"/>
-      <c r="I43" s="374"/>
-      <c r="J43" s="374"/>
-      <c r="K43" s="374"/>
-      <c r="L43" s="374"/>
-      <c r="M43" s="374"/>
-      <c r="N43" s="374"/>
-      <c r="O43" s="374"/>
-      <c r="P43" s="374"/>
-      <c r="Q43" s="374"/>
-      <c r="R43" s="374"/>
-      <c r="S43" s="374"/>
-      <c r="T43" s="374"/>
+      <c r="A43" s="370"/>
+      <c r="B43" s="370"/>
+      <c r="C43" s="370"/>
+      <c r="D43" s="370"/>
+      <c r="E43" s="370"/>
+      <c r="F43" s="370"/>
+      <c r="G43" s="370"/>
+      <c r="H43" s="370"/>
+      <c r="I43" s="370"/>
+      <c r="J43" s="370"/>
+      <c r="K43" s="370"/>
+      <c r="L43" s="370"/>
+      <c r="M43" s="370"/>
+      <c r="N43" s="370"/>
+      <c r="O43" s="370"/>
+      <c r="P43" s="370"/>
+      <c r="Q43" s="370"/>
+      <c r="R43" s="370"/>
+      <c r="S43" s="370"/>
+      <c r="T43" s="370"/>
       <c r="U43" s="81"/>
       <c r="V43" s="58"/>
     </row>
@@ -20811,6 +20799,12 @@
     <row r="104" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A43:T43"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="D42:H42"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J19:M19"/>
@@ -20826,12 +20820,6 @@
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="R11:U11"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="A43:T43"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="D42:H42"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20905,30 +20893,30 @@
       <c r="V2" s="169"/>
     </row>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="409" t="s">
+      <c r="A3" s="414" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="409"/>
-      <c r="C3" s="409"/>
-      <c r="D3" s="409"/>
-      <c r="E3" s="409"/>
-      <c r="F3" s="409"/>
-      <c r="G3" s="409"/>
-      <c r="H3" s="409"/>
-      <c r="I3" s="409"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
-      <c r="N3" s="409"/>
-      <c r="O3" s="409"/>
-      <c r="P3" s="409"/>
-      <c r="Q3" s="409"/>
-      <c r="R3" s="409"/>
-      <c r="S3" s="409"/>
-      <c r="T3" s="409"/>
-      <c r="U3" s="409"/>
-      <c r="V3" s="409"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="414"/>
+      <c r="H3" s="414"/>
+      <c r="I3" s="414"/>
+      <c r="J3" s="414"/>
+      <c r="K3" s="414"/>
+      <c r="L3" s="414"/>
+      <c r="M3" s="414"/>
+      <c r="N3" s="414"/>
+      <c r="O3" s="414"/>
+      <c r="P3" s="414"/>
+      <c r="Q3" s="414"/>
+      <c r="R3" s="414"/>
+      <c r="S3" s="414"/>
+      <c r="T3" s="414"/>
+      <c r="U3" s="414"/>
+      <c r="V3" s="414"/>
     </row>
     <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="169"/>
@@ -21019,10 +21007,10 @@
       <c r="M7" s="177"/>
       <c r="N7" s="177"/>
       <c r="O7" s="171"/>
-      <c r="P7" s="413" t="s">
+      <c r="P7" s="418" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" s="413"/>
+      <c r="Q7" s="418"/>
       <c r="R7" s="221" t="s">
         <v>7</v>
       </c>
@@ -21036,27 +21024,27 @@
       <c r="C8" s="170"/>
       <c r="D8" s="170"/>
       <c r="E8" s="170"/>
-      <c r="F8" s="340" t="s">
+      <c r="F8" s="310" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="341"/>
-      <c r="H8" s="342"/>
-      <c r="I8" s="340" t="s">
+      <c r="G8" s="311"/>
+      <c r="H8" s="312"/>
+      <c r="I8" s="310" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="341"/>
-      <c r="K8" s="342"/>
-      <c r="L8" s="348" t="s">
+      <c r="J8" s="311"/>
+      <c r="K8" s="312"/>
+      <c r="L8" s="315" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="341"/>
-      <c r="N8" s="342"/>
-      <c r="O8" s="414" t="s">
+      <c r="M8" s="311"/>
+      <c r="N8" s="312"/>
+      <c r="O8" s="419" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="415"/>
-      <c r="Q8" s="415"/>
-      <c r="R8" s="416"/>
+      <c r="P8" s="420"/>
+      <c r="Q8" s="420"/>
+      <c r="R8" s="421"/>
       <c r="S8" s="170"/>
       <c r="T8" s="170"/>
       <c r="U8" s="178"/>
@@ -21067,19 +21055,19 @@
       <c r="C9" s="170"/>
       <c r="D9" s="170"/>
       <c r="E9" s="170"/>
-      <c r="F9" s="343"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="349"/>
-      <c r="I9" s="343"/>
-      <c r="J9" s="344"/>
-      <c r="K9" s="349"/>
-      <c r="L9" s="343"/>
-      <c r="M9" s="344"/>
-      <c r="N9" s="349"/>
-      <c r="O9" s="417"/>
-      <c r="P9" s="418"/>
-      <c r="Q9" s="418"/>
-      <c r="R9" s="419"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="314"/>
+      <c r="H9" s="316"/>
+      <c r="I9" s="313"/>
+      <c r="J9" s="314"/>
+      <c r="K9" s="316"/>
+      <c r="L9" s="313"/>
+      <c r="M9" s="314"/>
+      <c r="N9" s="316"/>
+      <c r="O9" s="422"/>
+      <c r="P9" s="423"/>
+      <c r="Q9" s="423"/>
+      <c r="R9" s="424"/>
       <c r="S9" s="170"/>
       <c r="T9" s="170"/>
       <c r="U9" s="178"/>
@@ -21090,31 +21078,31 @@
       <c r="C10" s="170"/>
       <c r="D10" s="170"/>
       <c r="E10" s="170"/>
-      <c r="F10" s="403">
+      <c r="F10" s="401">
         <f>'Data Record'!C22</f>
         <v>1</v>
       </c>
-      <c r="G10" s="404"/>
-      <c r="H10" s="405"/>
-      <c r="I10" s="406">
+      <c r="G10" s="402"/>
+      <c r="H10" s="403"/>
+      <c r="I10" s="404">
         <f>'Data Record'!T22</f>
         <v>0</v>
       </c>
-      <c r="J10" s="407"/>
-      <c r="K10" s="408"/>
-      <c r="L10" s="406">
+      <c r="J10" s="405"/>
+      <c r="K10" s="406"/>
+      <c r="L10" s="404">
         <f>'Data Record'!X22</f>
         <v>0</v>
       </c>
-      <c r="M10" s="407"/>
-      <c r="N10" s="408"/>
-      <c r="O10" s="410">
+      <c r="M10" s="405"/>
+      <c r="N10" s="406"/>
+      <c r="O10" s="415">
         <f>'Uncertainty Budget'!X7</f>
         <v>0.12837780214002936</v>
       </c>
-      <c r="P10" s="411"/>
-      <c r="Q10" s="411"/>
-      <c r="R10" s="412"/>
+      <c r="P10" s="416"/>
+      <c r="Q10" s="416"/>
+      <c r="R10" s="417"/>
       <c r="S10" s="170"/>
       <c r="T10" s="170"/>
       <c r="U10" s="178"/>
@@ -21125,31 +21113,31 @@
       <c r="C11" s="170"/>
       <c r="D11" s="170"/>
       <c r="E11" s="170"/>
-      <c r="F11" s="403">
+      <c r="F11" s="401">
         <f>'Data Record'!C23</f>
         <v>2</v>
       </c>
-      <c r="G11" s="404"/>
-      <c r="H11" s="405"/>
-      <c r="I11" s="406">
+      <c r="G11" s="402"/>
+      <c r="H11" s="403"/>
+      <c r="I11" s="404">
         <f>'Data Record'!T23</f>
         <v>0</v>
       </c>
-      <c r="J11" s="407"/>
-      <c r="K11" s="408"/>
-      <c r="L11" s="406">
+      <c r="J11" s="405"/>
+      <c r="K11" s="406"/>
+      <c r="L11" s="404">
         <f>'Data Record'!X23</f>
         <v>0</v>
       </c>
-      <c r="M11" s="407"/>
-      <c r="N11" s="408"/>
-      <c r="O11" s="406">
+      <c r="M11" s="405"/>
+      <c r="N11" s="406"/>
+      <c r="O11" s="404">
         <f>'Uncertainty Budget'!X8</f>
         <v>0.13042185431247527</v>
       </c>
-      <c r="P11" s="407"/>
-      <c r="Q11" s="407"/>
-      <c r="R11" s="408"/>
+      <c r="P11" s="405"/>
+      <c r="Q11" s="405"/>
+      <c r="R11" s="406"/>
       <c r="S11" s="170"/>
       <c r="T11" s="170"/>
       <c r="U11" s="178"/>
@@ -21160,31 +21148,31 @@
       <c r="C12" s="170"/>
       <c r="D12" s="170"/>
       <c r="E12" s="170"/>
-      <c r="F12" s="403">
+      <c r="F12" s="401">
         <f>'Data Record'!C24</f>
         <v>3</v>
       </c>
-      <c r="G12" s="404"/>
-      <c r="H12" s="405"/>
-      <c r="I12" s="406">
+      <c r="G12" s="402"/>
+      <c r="H12" s="403"/>
+      <c r="I12" s="404">
         <f>'Data Record'!T24</f>
         <v>0</v>
       </c>
-      <c r="J12" s="407"/>
-      <c r="K12" s="408"/>
-      <c r="L12" s="406">
+      <c r="J12" s="405"/>
+      <c r="K12" s="406"/>
+      <c r="L12" s="404">
         <f>'Data Record'!X24</f>
         <v>0</v>
       </c>
-      <c r="M12" s="407"/>
-      <c r="N12" s="408"/>
-      <c r="O12" s="406">
+      <c r="M12" s="405"/>
+      <c r="N12" s="406"/>
+      <c r="O12" s="404">
         <f>'Uncertainty Budget'!X9</f>
         <v>0.13375921182846134</v>
       </c>
-      <c r="P12" s="407"/>
-      <c r="Q12" s="407"/>
-      <c r="R12" s="408"/>
+      <c r="P12" s="405"/>
+      <c r="Q12" s="405"/>
+      <c r="R12" s="406"/>
       <c r="S12" s="170"/>
       <c r="T12" s="170"/>
       <c r="U12" s="178"/>
@@ -21195,31 +21183,31 @@
       <c r="C13" s="170"/>
       <c r="D13" s="170"/>
       <c r="E13" s="170"/>
-      <c r="F13" s="403">
+      <c r="F13" s="401">
         <f>'Data Record'!C25</f>
         <v>4</v>
       </c>
-      <c r="G13" s="404"/>
-      <c r="H13" s="405"/>
-      <c r="I13" s="406">
+      <c r="G13" s="402"/>
+      <c r="H13" s="403"/>
+      <c r="I13" s="404">
         <f>'Data Record'!T25</f>
         <v>0</v>
       </c>
-      <c r="J13" s="407"/>
-      <c r="K13" s="408"/>
-      <c r="L13" s="406">
+      <c r="J13" s="405"/>
+      <c r="K13" s="406"/>
+      <c r="L13" s="404">
         <f>'Data Record'!X25</f>
         <v>0</v>
       </c>
-      <c r="M13" s="407"/>
-      <c r="N13" s="408"/>
-      <c r="O13" s="406">
+      <c r="M13" s="405"/>
+      <c r="N13" s="406"/>
+      <c r="O13" s="404">
         <f>'Uncertainty Budget'!X10</f>
         <v>0.13829627645856749</v>
       </c>
-      <c r="P13" s="407"/>
-      <c r="Q13" s="407"/>
-      <c r="R13" s="408"/>
+      <c r="P13" s="405"/>
+      <c r="Q13" s="405"/>
+      <c r="R13" s="406"/>
       <c r="S13" s="170"/>
       <c r="T13" s="170"/>
       <c r="U13" s="178"/>
@@ -21230,31 +21218,31 @@
       <c r="C14" s="170"/>
       <c r="D14" s="170"/>
       <c r="E14" s="170"/>
-      <c r="F14" s="403">
+      <c r="F14" s="401">
         <f>'Data Record'!C26</f>
         <v>5</v>
       </c>
-      <c r="G14" s="404"/>
-      <c r="H14" s="405"/>
-      <c r="I14" s="406">
+      <c r="G14" s="402"/>
+      <c r="H14" s="403"/>
+      <c r="I14" s="404">
         <f>'Data Record'!T26</f>
         <v>0</v>
       </c>
-      <c r="J14" s="407"/>
-      <c r="K14" s="408"/>
-      <c r="L14" s="406">
+      <c r="J14" s="405"/>
+      <c r="K14" s="406"/>
+      <c r="L14" s="404">
         <f>'Data Record'!X26</f>
         <v>0</v>
       </c>
-      <c r="M14" s="407"/>
-      <c r="N14" s="408"/>
-      <c r="O14" s="406">
+      <c r="M14" s="405"/>
+      <c r="N14" s="406"/>
+      <c r="O14" s="404">
         <f>'Uncertainty Budget'!X11</f>
         <v>0.14970925182601283</v>
       </c>
-      <c r="P14" s="407"/>
-      <c r="Q14" s="407"/>
-      <c r="R14" s="408"/>
+      <c r="P14" s="405"/>
+      <c r="Q14" s="405"/>
+      <c r="R14" s="406"/>
       <c r="S14" s="170"/>
       <c r="T14" s="170"/>
       <c r="U14" s="178"/>
@@ -21265,31 +21253,31 @@
       <c r="C15" s="170"/>
       <c r="D15" s="170"/>
       <c r="E15" s="170"/>
-      <c r="F15" s="403">
+      <c r="F15" s="401">
         <f>'Data Record'!C27</f>
         <v>7</v>
       </c>
-      <c r="G15" s="404"/>
-      <c r="H15" s="405"/>
-      <c r="I15" s="406">
+      <c r="G15" s="402"/>
+      <c r="H15" s="403"/>
+      <c r="I15" s="404">
         <f>'Data Record'!T27</f>
         <v>0</v>
       </c>
-      <c r="J15" s="407"/>
-      <c r="K15" s="408"/>
-      <c r="L15" s="406">
+      <c r="J15" s="405"/>
+      <c r="K15" s="406"/>
+      <c r="L15" s="404">
         <f>'Data Record'!X27</f>
         <v>0</v>
       </c>
-      <c r="M15" s="407"/>
-      <c r="N15" s="408"/>
-      <c r="O15" s="406">
+      <c r="M15" s="405"/>
+      <c r="N15" s="406"/>
+      <c r="O15" s="404">
         <f>'Uncertainty Budget'!X12</f>
         <v>0.16323253377407496</v>
       </c>
-      <c r="P15" s="407"/>
-      <c r="Q15" s="407"/>
-      <c r="R15" s="408"/>
+      <c r="P15" s="405"/>
+      <c r="Q15" s="405"/>
+      <c r="R15" s="406"/>
       <c r="S15" s="170"/>
       <c r="T15" s="170"/>
       <c r="U15" s="178"/>
@@ -21300,31 +21288,31 @@
       <c r="C16" s="170"/>
       <c r="D16" s="170"/>
       <c r="E16" s="170"/>
-      <c r="F16" s="403">
+      <c r="F16" s="401">
         <f>'Data Record'!C28</f>
         <v>10</v>
       </c>
-      <c r="G16" s="404"/>
-      <c r="H16" s="405"/>
-      <c r="I16" s="406">
+      <c r="G16" s="402"/>
+      <c r="H16" s="403"/>
+      <c r="I16" s="404">
         <f>'Data Record'!T28</f>
         <v>0</v>
       </c>
-      <c r="J16" s="407"/>
-      <c r="K16" s="408"/>
-      <c r="L16" s="406">
+      <c r="J16" s="405"/>
+      <c r="K16" s="406"/>
+      <c r="L16" s="404">
         <f>'Data Record'!X28</f>
         <v>0</v>
       </c>
-      <c r="M16" s="407"/>
-      <c r="N16" s="408"/>
-      <c r="O16" s="406">
+      <c r="M16" s="405"/>
+      <c r="N16" s="406"/>
+      <c r="O16" s="404">
         <f>'Uncertainty Budget'!X13</f>
         <v>0.18877992499814308</v>
       </c>
-      <c r="P16" s="407"/>
-      <c r="Q16" s="407"/>
-      <c r="R16" s="408"/>
+      <c r="P16" s="405"/>
+      <c r="Q16" s="405"/>
+      <c r="R16" s="406"/>
       <c r="S16" s="170"/>
       <c r="T16" s="170"/>
       <c r="U16" s="178"/>
@@ -21335,31 +21323,31 @@
       <c r="C17" s="170"/>
       <c r="D17" s="170"/>
       <c r="E17" s="170"/>
-      <c r="F17" s="403">
+      <c r="F17" s="401">
         <f>'Data Record'!C29</f>
         <v>12</v>
       </c>
-      <c r="G17" s="404"/>
-      <c r="H17" s="405"/>
-      <c r="I17" s="406">
+      <c r="G17" s="402"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="404">
         <f>'Data Record'!T29</f>
         <v>0</v>
       </c>
-      <c r="J17" s="407"/>
-      <c r="K17" s="408"/>
-      <c r="L17" s="406">
+      <c r="J17" s="405"/>
+      <c r="K17" s="406"/>
+      <c r="L17" s="404">
         <f>'Data Record'!X29</f>
         <v>0</v>
       </c>
-      <c r="M17" s="407"/>
-      <c r="N17" s="408"/>
-      <c r="O17" s="406">
+      <c r="M17" s="405"/>
+      <c r="N17" s="406"/>
+      <c r="O17" s="404">
         <f>'Uncertainty Budget'!X14</f>
         <v>0.25592289219405751</v>
       </c>
-      <c r="P17" s="407"/>
-      <c r="Q17" s="407"/>
-      <c r="R17" s="408"/>
+      <c r="P17" s="405"/>
+      <c r="Q17" s="405"/>
+      <c r="R17" s="406"/>
       <c r="S17" s="170"/>
       <c r="T17" s="170"/>
       <c r="U17" s="178"/>
@@ -21370,31 +21358,31 @@
       <c r="C18" s="170"/>
       <c r="D18" s="170"/>
       <c r="E18" s="170"/>
-      <c r="F18" s="403">
+      <c r="F18" s="401">
         <f>'Data Record'!C30</f>
         <v>15</v>
       </c>
-      <c r="G18" s="404"/>
-      <c r="H18" s="405"/>
-      <c r="I18" s="406">
+      <c r="G18" s="402"/>
+      <c r="H18" s="403"/>
+      <c r="I18" s="404">
         <f>'Data Record'!T30</f>
         <v>0</v>
       </c>
-      <c r="J18" s="407"/>
-      <c r="K18" s="408"/>
-      <c r="L18" s="406">
+      <c r="J18" s="405"/>
+      <c r="K18" s="406"/>
+      <c r="L18" s="404">
         <f>'Data Record'!X30</f>
         <v>0</v>
       </c>
-      <c r="M18" s="407"/>
-      <c r="N18" s="408"/>
-      <c r="O18" s="406">
+      <c r="M18" s="405"/>
+      <c r="N18" s="406"/>
+      <c r="O18" s="404">
         <f>'Uncertainty Budget'!X15</f>
         <v>0.28858192380842429</v>
       </c>
-      <c r="P18" s="407"/>
-      <c r="Q18" s="407"/>
-      <c r="R18" s="408"/>
+      <c r="P18" s="405"/>
+      <c r="Q18" s="405"/>
+      <c r="R18" s="406"/>
       <c r="S18" s="170"/>
       <c r="T18" s="170"/>
       <c r="U18" s="178"/>
@@ -21405,31 +21393,31 @@
       <c r="C19" s="170"/>
       <c r="D19" s="170"/>
       <c r="E19" s="170"/>
-      <c r="F19" s="403">
+      <c r="F19" s="401">
         <f>'Data Record'!C31</f>
         <v>18</v>
       </c>
-      <c r="G19" s="404"/>
-      <c r="H19" s="405"/>
-      <c r="I19" s="406">
+      <c r="G19" s="402"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="404">
         <f>'Data Record'!T31</f>
         <v>0</v>
       </c>
-      <c r="J19" s="407"/>
-      <c r="K19" s="408"/>
-      <c r="L19" s="406">
+      <c r="J19" s="405"/>
+      <c r="K19" s="406"/>
+      <c r="L19" s="404">
         <f>'Data Record'!X31</f>
         <v>0</v>
       </c>
-      <c r="M19" s="407"/>
-      <c r="N19" s="408"/>
-      <c r="O19" s="406">
+      <c r="M19" s="405"/>
+      <c r="N19" s="406"/>
+      <c r="O19" s="404">
         <f>'Uncertainty Budget'!X16</f>
         <v>0.31739018061208379</v>
       </c>
-      <c r="P19" s="407"/>
-      <c r="Q19" s="407"/>
-      <c r="R19" s="408"/>
+      <c r="P19" s="405"/>
+      <c r="Q19" s="405"/>
+      <c r="R19" s="406"/>
       <c r="S19" s="170"/>
       <c r="T19" s="170"/>
       <c r="U19" s="178"/>
@@ -21440,31 +21428,31 @@
       <c r="C20" s="170"/>
       <c r="D20" s="170"/>
       <c r="E20" s="170"/>
-      <c r="F20" s="403">
+      <c r="F20" s="401">
         <f>'Data Record'!C32</f>
         <v>20</v>
       </c>
-      <c r="G20" s="404"/>
-      <c r="H20" s="405"/>
-      <c r="I20" s="406">
+      <c r="G20" s="402"/>
+      <c r="H20" s="403"/>
+      <c r="I20" s="404">
         <f>'Data Record'!T32</f>
         <v>0</v>
       </c>
-      <c r="J20" s="407"/>
-      <c r="K20" s="408"/>
-      <c r="L20" s="406">
+      <c r="J20" s="405"/>
+      <c r="K20" s="406"/>
+      <c r="L20" s="404">
         <f>'Data Record'!X32</f>
         <v>0</v>
       </c>
-      <c r="M20" s="407"/>
-      <c r="N20" s="408"/>
-      <c r="O20" s="406">
+      <c r="M20" s="405"/>
+      <c r="N20" s="406"/>
+      <c r="O20" s="404">
         <f>'Uncertainty Budget'!X17</f>
         <v>0.30288258464676465</v>
       </c>
-      <c r="P20" s="407"/>
-      <c r="Q20" s="407"/>
-      <c r="R20" s="408"/>
+      <c r="P20" s="405"/>
+      <c r="Q20" s="405"/>
+      <c r="R20" s="406"/>
       <c r="S20" s="170"/>
       <c r="T20" s="170"/>
       <c r="U20" s="178"/>
@@ -21475,31 +21463,31 @@
       <c r="C21" s="170"/>
       <c r="D21" s="170"/>
       <c r="E21" s="170"/>
-      <c r="F21" s="403">
+      <c r="F21" s="401">
         <f>'Data Record'!C33</f>
         <v>25</v>
       </c>
-      <c r="G21" s="404"/>
-      <c r="H21" s="405"/>
-      <c r="I21" s="406">
+      <c r="G21" s="402"/>
+      <c r="H21" s="403"/>
+      <c r="I21" s="404">
         <f>'Data Record'!T33</f>
         <v>0</v>
       </c>
-      <c r="J21" s="407"/>
-      <c r="K21" s="408"/>
-      <c r="L21" s="406">
+      <c r="J21" s="405"/>
+      <c r="K21" s="406"/>
+      <c r="L21" s="404">
         <f>'Data Record'!X33</f>
         <v>0</v>
       </c>
-      <c r="M21" s="407"/>
-      <c r="N21" s="408"/>
-      <c r="O21" s="406">
+      <c r="M21" s="405"/>
+      <c r="N21" s="406"/>
+      <c r="O21" s="404">
         <f>'Uncertainty Budget'!X18</f>
         <v>0.35357157702833597</v>
       </c>
-      <c r="P21" s="407"/>
-      <c r="Q21" s="407"/>
-      <c r="R21" s="408"/>
+      <c r="P21" s="405"/>
+      <c r="Q21" s="405"/>
+      <c r="R21" s="406"/>
       <c r="S21" s="170"/>
       <c r="T21" s="170"/>
       <c r="U21" s="178"/>
@@ -21510,31 +21498,31 @@
       <c r="C22" s="170"/>
       <c r="D22" s="170"/>
       <c r="E22" s="170"/>
-      <c r="F22" s="422">
+      <c r="F22" s="407">
         <f>'Data Record'!C34</f>
         <v>50</v>
       </c>
-      <c r="G22" s="423"/>
-      <c r="H22" s="424"/>
-      <c r="I22" s="425">
+      <c r="G22" s="408"/>
+      <c r="H22" s="409"/>
+      <c r="I22" s="410">
         <f>'Data Record'!T34</f>
         <v>0</v>
       </c>
-      <c r="J22" s="426"/>
-      <c r="K22" s="427"/>
-      <c r="L22" s="425">
+      <c r="J22" s="411"/>
+      <c r="K22" s="412"/>
+      <c r="L22" s="410">
         <f>'Data Record'!X34</f>
         <v>0</v>
       </c>
-      <c r="M22" s="426"/>
-      <c r="N22" s="427"/>
-      <c r="O22" s="425">
+      <c r="M22" s="411"/>
+      <c r="N22" s="412"/>
+      <c r="O22" s="410">
         <f>'Uncertainty Budget'!X19</f>
         <v>0.68712288572154601</v>
       </c>
-      <c r="P22" s="426"/>
-      <c r="Q22" s="426"/>
-      <c r="R22" s="427"/>
+      <c r="P22" s="411"/>
+      <c r="Q22" s="411"/>
+      <c r="R22" s="412"/>
       <c r="S22" s="170"/>
       <c r="T22" s="170"/>
       <c r="U22" s="178"/>
@@ -21583,11 +21571,11 @@
       <c r="O24" s="235" t="s">
         <v>130</v>
       </c>
-      <c r="P24" s="428">
+      <c r="P24" s="413">
         <f>'Data Record'!Y17</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="428"/>
+      <c r="Q24" s="413"/>
       <c r="R24" s="236" t="s">
         <v>7</v>
       </c>
@@ -21626,11 +21614,11 @@
       <c r="O25" s="232" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="428">
+      <c r="P25" s="413">
         <f>'Data Record'!Y18</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="428"/>
+      <c r="Q25" s="413"/>
       <c r="R25" s="238" t="s">
         <v>7</v>
       </c>
@@ -21701,86 +21689,86 @@
       <c r="X27" s="170"/>
     </row>
     <row r="28" spans="1:32" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="420" t="s">
+      <c r="A28" s="399" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="420"/>
-      <c r="C28" s="420"/>
-      <c r="D28" s="420"/>
-      <c r="E28" s="420"/>
-      <c r="F28" s="420"/>
-      <c r="G28" s="420"/>
-      <c r="H28" s="420"/>
-      <c r="I28" s="420"/>
-      <c r="J28" s="420"/>
-      <c r="K28" s="420"/>
-      <c r="L28" s="420"/>
-      <c r="M28" s="420"/>
-      <c r="N28" s="420"/>
-      <c r="O28" s="420"/>
-      <c r="P28" s="420"/>
-      <c r="Q28" s="420"/>
-      <c r="R28" s="420"/>
-      <c r="S28" s="420"/>
-      <c r="T28" s="420"/>
-      <c r="U28" s="420"/>
-      <c r="V28" s="420"/>
+      <c r="B28" s="399"/>
+      <c r="C28" s="399"/>
+      <c r="D28" s="399"/>
+      <c r="E28" s="399"/>
+      <c r="F28" s="399"/>
+      <c r="G28" s="399"/>
+      <c r="H28" s="399"/>
+      <c r="I28" s="399"/>
+      <c r="J28" s="399"/>
+      <c r="K28" s="399"/>
+      <c r="L28" s="399"/>
+      <c r="M28" s="399"/>
+      <c r="N28" s="399"/>
+      <c r="O28" s="399"/>
+      <c r="P28" s="399"/>
+      <c r="Q28" s="399"/>
+      <c r="R28" s="399"/>
+      <c r="S28" s="399"/>
+      <c r="T28" s="399"/>
+      <c r="U28" s="399"/>
+      <c r="V28" s="399"/>
       <c r="W28" s="170"/>
       <c r="X28" s="170"/>
     </row>
     <row r="29" spans="1:32" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="420" t="s">
+      <c r="A29" s="399" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="420"/>
-      <c r="C29" s="420"/>
-      <c r="D29" s="420"/>
-      <c r="E29" s="420"/>
-      <c r="F29" s="420"/>
-      <c r="G29" s="420"/>
-      <c r="H29" s="420"/>
-      <c r="I29" s="420"/>
-      <c r="J29" s="420"/>
-      <c r="K29" s="420"/>
-      <c r="L29" s="420"/>
-      <c r="M29" s="420"/>
-      <c r="N29" s="420"/>
-      <c r="O29" s="420"/>
-      <c r="P29" s="420"/>
-      <c r="Q29" s="420"/>
-      <c r="R29" s="420"/>
-      <c r="S29" s="420"/>
-      <c r="T29" s="420"/>
-      <c r="U29" s="420"/>
-      <c r="V29" s="420"/>
+      <c r="B29" s="399"/>
+      <c r="C29" s="399"/>
+      <c r="D29" s="399"/>
+      <c r="E29" s="399"/>
+      <c r="F29" s="399"/>
+      <c r="G29" s="399"/>
+      <c r="H29" s="399"/>
+      <c r="I29" s="399"/>
+      <c r="J29" s="399"/>
+      <c r="K29" s="399"/>
+      <c r="L29" s="399"/>
+      <c r="M29" s="399"/>
+      <c r="N29" s="399"/>
+      <c r="O29" s="399"/>
+      <c r="P29" s="399"/>
+      <c r="Q29" s="399"/>
+      <c r="R29" s="399"/>
+      <c r="S29" s="399"/>
+      <c r="T29" s="399"/>
+      <c r="U29" s="399"/>
+      <c r="V29" s="399"/>
       <c r="W29" s="170"/>
       <c r="X29" s="170"/>
     </row>
     <row r="30" spans="1:32" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="421" t="s">
+      <c r="A30" s="400" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="421"/>
-      <c r="C30" s="421"/>
-      <c r="D30" s="421"/>
-      <c r="E30" s="421"/>
-      <c r="F30" s="421"/>
-      <c r="G30" s="421"/>
-      <c r="H30" s="421"/>
-      <c r="I30" s="421"/>
-      <c r="J30" s="421"/>
-      <c r="K30" s="421"/>
-      <c r="L30" s="421"/>
-      <c r="M30" s="421"/>
-      <c r="N30" s="421"/>
-      <c r="O30" s="421"/>
-      <c r="P30" s="421"/>
-      <c r="Q30" s="421"/>
-      <c r="R30" s="421"/>
-      <c r="S30" s="421"/>
-      <c r="T30" s="421"/>
-      <c r="U30" s="421"/>
-      <c r="V30" s="421"/>
+      <c r="B30" s="400"/>
+      <c r="C30" s="400"/>
+      <c r="D30" s="400"/>
+      <c r="E30" s="400"/>
+      <c r="F30" s="400"/>
+      <c r="G30" s="400"/>
+      <c r="H30" s="400"/>
+      <c r="I30" s="400"/>
+      <c r="J30" s="400"/>
+      <c r="K30" s="400"/>
+      <c r="L30" s="400"/>
+      <c r="M30" s="400"/>
+      <c r="N30" s="400"/>
+      <c r="O30" s="400"/>
+      <c r="P30" s="400"/>
+      <c r="Q30" s="400"/>
+      <c r="R30" s="400"/>
+      <c r="S30" s="400"/>
+      <c r="T30" s="400"/>
+      <c r="U30" s="400"/>
+      <c r="V30" s="400"/>
       <c r="W30" s="170"/>
       <c r="X30" s="170"/>
     </row>
@@ -21886,6 +21874,56 @@
     <row r="108" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="O8:R9"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:R20"/>
     <mergeCell ref="A29:V29"/>
     <mergeCell ref="A30:V30"/>
     <mergeCell ref="F21:H21"/>
@@ -21899,56 +21937,6 @@
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="A28:V28"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="F8:H9"/>
-    <mergeCell ref="I8:K9"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="O8:R9"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:R12"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21965,7 +21953,7 @@
   </sheetPr>
   <dimension ref="A1:BB130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="W7" sqref="W7:W19"/>
     </sheetView>
   </sheetViews>
@@ -22427,39 +22415,39 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:54" ht="42" customHeight="1">
-      <c r="B2" s="429" t="s">
+      <c r="B2" s="435" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="429"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
-      <c r="K2" s="430"/>
-      <c r="L2" s="430"/>
-      <c r="M2" s="430"/>
-      <c r="N2" s="430"/>
-      <c r="O2" s="430"/>
-      <c r="P2" s="430"/>
-      <c r="Q2" s="430"/>
-      <c r="R2" s="430"/>
-      <c r="S2" s="430"/>
-      <c r="T2" s="430"/>
-      <c r="U2" s="430"/>
-      <c r="V2" s="430"/>
-      <c r="W2" s="430"/>
-      <c r="X2" s="430"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
+      <c r="V2" s="436"/>
+      <c r="W2" s="436"/>
+      <c r="X2" s="436"/>
     </row>
     <row r="3" spans="1:54" ht="18" customHeight="1">
-      <c r="B3" s="431"/>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431"/>
+      <c r="B3" s="437"/>
+      <c r="C3" s="437"/>
+      <c r="D3" s="437"/>
+      <c r="E3" s="437"/>
+      <c r="F3" s="437"/>
+      <c r="G3" s="437"/>
       <c r="H3" s="125"/>
       <c r="I3" s="125"/>
       <c r="J3" s="3"/>
@@ -22467,52 +22455,52 @@
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="18" customHeight="1">
-      <c r="B4" s="432" t="s">
+      <c r="B4" s="427" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="433"/>
-      <c r="D4" s="432" t="s">
+      <c r="C4" s="428"/>
+      <c r="D4" s="427" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="433"/>
-      <c r="F4" s="434" t="s">
+      <c r="E4" s="428"/>
+      <c r="F4" s="438" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="435"/>
-      <c r="H4" s="434" t="s">
+      <c r="G4" s="439"/>
+      <c r="H4" s="438" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="435"/>
-      <c r="J4" s="436" t="s">
+      <c r="I4" s="439"/>
+      <c r="J4" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="437"/>
-      <c r="L4" s="432" t="s">
+      <c r="K4" s="441"/>
+      <c r="L4" s="427" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="433"/>
-      <c r="N4" s="432" t="s">
+      <c r="M4" s="428"/>
+      <c r="N4" s="427" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="433"/>
-      <c r="P4" s="432" t="s">
+      <c r="O4" s="428"/>
+      <c r="P4" s="427" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="433"/>
-      <c r="R4" s="432" t="s">
+      <c r="Q4" s="428"/>
+      <c r="R4" s="427" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="433"/>
-      <c r="T4" s="438" t="s">
+      <c r="S4" s="428"/>
+      <c r="T4" s="429" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="438" t="s">
+      <c r="U4" s="429" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="438" t="s">
+      <c r="V4" s="429" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="438" t="s">
+      <c r="W4" s="429" t="s">
         <v>91</v>
       </c>
       <c r="X4" s="150" t="s">
@@ -22521,55 +22509,55 @@
     </row>
     <row r="5" spans="1:54" ht="18" customHeight="1">
       <c r="A5" s="117"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="431" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="441"/>
-      <c r="D5" s="440" t="s">
+      <c r="C5" s="432"/>
+      <c r="D5" s="431" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="441"/>
-      <c r="F5" s="440" t="s">
+      <c r="E5" s="432"/>
+      <c r="F5" s="431" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="441"/>
-      <c r="H5" s="440" t="s">
+      <c r="G5" s="432"/>
+      <c r="H5" s="431" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="441"/>
-      <c r="J5" s="440" t="s">
+      <c r="I5" s="432"/>
+      <c r="J5" s="431" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="441"/>
-      <c r="L5" s="440" t="s">
+      <c r="K5" s="432"/>
+      <c r="L5" s="431" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="441"/>
-      <c r="N5" s="440" t="s">
+      <c r="M5" s="432"/>
+      <c r="N5" s="431" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="441"/>
-      <c r="P5" s="440" t="s">
+      <c r="O5" s="432"/>
+      <c r="P5" s="431" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" s="441"/>
-      <c r="R5" s="440" t="s">
+      <c r="Q5" s="432"/>
+      <c r="R5" s="431" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="441"/>
-      <c r="T5" s="439"/>
-      <c r="U5" s="439"/>
-      <c r="V5" s="439"/>
-      <c r="W5" s="439"/>
+      <c r="S5" s="432"/>
+      <c r="T5" s="430"/>
+      <c r="U5" s="430"/>
+      <c r="V5" s="430"/>
+      <c r="W5" s="430"/>
       <c r="X5" s="151" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:54" ht="18" customHeight="1">
-      <c r="B6" s="444" t="s">
+      <c r="B6" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="445"/>
+      <c r="C6" s="434"/>
       <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
@@ -22636,11 +22624,11 @@
       <c r="Y6" s="117"/>
     </row>
     <row r="7" spans="1:54" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="442">
+      <c r="B7" s="425">
         <f>'Data Record'!C22</f>
         <v>1</v>
       </c>
-      <c r="C7" s="443"/>
+      <c r="C7" s="426"/>
       <c r="D7" s="153">
         <f>'Data Record'!U22</f>
         <v>0</v>
@@ -22758,11 +22746,11 @@
     </row>
     <row r="8" spans="1:54" ht="21" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="442">
+      <c r="B8" s="425">
         <f>'Data Record'!C23</f>
         <v>2</v>
       </c>
-      <c r="C8" s="443"/>
+      <c r="C8" s="426"/>
       <c r="D8" s="153">
         <f>'Data Record'!U23</f>
         <v>0</v>
@@ -22851,11 +22839,11 @@
     </row>
     <row r="9" spans="1:54" ht="21" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="442">
+      <c r="B9" s="425">
         <f>'Data Record'!C24</f>
         <v>3</v>
       </c>
-      <c r="C9" s="443"/>
+      <c r="C9" s="426"/>
       <c r="D9" s="153">
         <f>'Data Record'!U24</f>
         <v>0</v>
@@ -22944,11 +22932,11 @@
     </row>
     <row r="10" spans="1:54" ht="21" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="442">
+      <c r="B10" s="425">
         <f>'Data Record'!C25</f>
         <v>4</v>
       </c>
-      <c r="C10" s="443"/>
+      <c r="C10" s="426"/>
       <c r="D10" s="153">
         <f>'Data Record'!U25</f>
         <v>0</v>
@@ -23037,11 +23025,11 @@
     </row>
     <row r="11" spans="1:54" ht="21" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="442">
+      <c r="B11" s="425">
         <f>'Data Record'!C26</f>
         <v>5</v>
       </c>
-      <c r="C11" s="443"/>
+      <c r="C11" s="426"/>
       <c r="D11" s="153">
         <f>'Data Record'!U26</f>
         <v>0</v>
@@ -23130,11 +23118,11 @@
     </row>
     <row r="12" spans="1:54" ht="21" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="442">
+      <c r="B12" s="425">
         <f>'Data Record'!C27</f>
         <v>7</v>
       </c>
-      <c r="C12" s="443"/>
+      <c r="C12" s="426"/>
       <c r="D12" s="153">
         <f>'Data Record'!U27</f>
         <v>0</v>
@@ -23223,11 +23211,11 @@
     </row>
     <row r="13" spans="1:54" ht="21" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="442">
+      <c r="B13" s="425">
         <f>'Data Record'!C28</f>
         <v>10</v>
       </c>
-      <c r="C13" s="443"/>
+      <c r="C13" s="426"/>
       <c r="D13" s="153">
         <f>'Data Record'!U28</f>
         <v>0</v>
@@ -23315,11 +23303,11 @@
       <c r="Y13" s="117"/>
     </row>
     <row r="14" spans="1:54" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="B14" s="442">
+      <c r="B14" s="425">
         <f>'Data Record'!C29</f>
         <v>12</v>
       </c>
-      <c r="C14" s="443"/>
+      <c r="C14" s="426"/>
       <c r="D14" s="153">
         <f>'Data Record'!U29</f>
         <v>0</v>
@@ -23407,11 +23395,11 @@
       <c r="Y14" s="120"/>
     </row>
     <row r="15" spans="1:54" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="B15" s="442">
+      <c r="B15" s="425">
         <f>'Data Record'!C30</f>
         <v>15</v>
       </c>
-      <c r="C15" s="443"/>
+      <c r="C15" s="426"/>
       <c r="D15" s="153">
         <f>'Data Record'!U30</f>
         <v>0</v>
@@ -23499,11 +23487,11 @@
       <c r="Y15" s="120"/>
     </row>
     <row r="16" spans="1:54" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="B16" s="442">
+      <c r="B16" s="425">
         <f>'Data Record'!C31</f>
         <v>18</v>
       </c>
-      <c r="C16" s="443"/>
+      <c r="C16" s="426"/>
       <c r="D16" s="153">
         <f>'Data Record'!U31</f>
         <v>0</v>
@@ -23591,11 +23579,11 @@
       <c r="Y16" s="120"/>
     </row>
     <row r="17" spans="1:25" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="B17" s="442">
+      <c r="B17" s="425">
         <f>'Data Record'!C32</f>
         <v>20</v>
       </c>
-      <c r="C17" s="443"/>
+      <c r="C17" s="426"/>
       <c r="D17" s="153">
         <f>'Data Record'!U32</f>
         <v>0</v>
@@ -23683,11 +23671,11 @@
       <c r="Y17" s="120"/>
     </row>
     <row r="18" spans="1:25" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="B18" s="442">
+      <c r="B18" s="425">
         <f>'Data Record'!C33</f>
         <v>25</v>
       </c>
-      <c r="C18" s="443"/>
+      <c r="C18" s="426"/>
       <c r="D18" s="153">
         <f>'Data Record'!U33</f>
         <v>0</v>
@@ -23776,11 +23764,11 @@
     </row>
     <row r="19" spans="1:25" s="7" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="442">
+      <c r="B19" s="425">
         <f>'Data Record'!C34</f>
         <v>50</v>
       </c>
-      <c r="C19" s="443"/>
+      <c r="C19" s="426"/>
       <c r="D19" s="153">
         <f>'Data Record'!U34</f>
         <v>0</v>
@@ -26648,28 +26636,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:X2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:C4"/>
@@ -26686,6 +26652,28 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26741,137 +26729,137 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:29" ht="26.25">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="442" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="455"/>
-      <c r="E2" s="456"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="444"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="454" t="s">
+      <c r="G2" s="442" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="455"/>
-      <c r="I2" s="455"/>
-      <c r="J2" s="455"/>
-      <c r="K2" s="456"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
+      <c r="J2" s="443"/>
+      <c r="K2" s="444"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="454" t="s">
+      <c r="M2" s="442" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="455"/>
-      <c r="O2" s="455"/>
-      <c r="P2" s="455"/>
-      <c r="Q2" s="456"/>
+      <c r="N2" s="443"/>
+      <c r="O2" s="443"/>
+      <c r="P2" s="443"/>
+      <c r="Q2" s="444"/>
       <c r="R2" s="34"/>
-      <c r="S2" s="454" t="s">
+      <c r="S2" s="442" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="455"/>
-      <c r="U2" s="455"/>
-      <c r="V2" s="455"/>
-      <c r="W2" s="456"/>
+      <c r="T2" s="443"/>
+      <c r="U2" s="443"/>
+      <c r="V2" s="443"/>
+      <c r="W2" s="444"/>
       <c r="X2" s="34"/>
-      <c r="Y2" s="454" t="s">
+      <c r="Y2" s="442" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="455"/>
-      <c r="AA2" s="455"/>
-      <c r="AB2" s="455"/>
-      <c r="AC2" s="456"/>
+      <c r="Z2" s="443"/>
+      <c r="AA2" s="443"/>
+      <c r="AB2" s="443"/>
+      <c r="AC2" s="444"/>
     </row>
     <row r="3" spans="1:29" ht="26.25">
-      <c r="A3" s="446" t="s">
+      <c r="A3" s="445" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="447"/>
-      <c r="C3" s="447"/>
-      <c r="D3" s="447"/>
-      <c r="E3" s="448"/>
+      <c r="B3" s="446"/>
+      <c r="C3" s="446"/>
+      <c r="D3" s="446"/>
+      <c r="E3" s="447"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="446" t="s">
+      <c r="G3" s="445" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="447"/>
-      <c r="I3" s="447"/>
-      <c r="J3" s="447"/>
-      <c r="K3" s="448"/>
+      <c r="H3" s="446"/>
+      <c r="I3" s="446"/>
+      <c r="J3" s="446"/>
+      <c r="K3" s="447"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="446" t="s">
+      <c r="M3" s="445" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="447"/>
-      <c r="O3" s="447"/>
-      <c r="P3" s="447"/>
-      <c r="Q3" s="448"/>
+      <c r="N3" s="446"/>
+      <c r="O3" s="446"/>
+      <c r="P3" s="446"/>
+      <c r="Q3" s="447"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="446" t="s">
+      <c r="S3" s="445" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="447"/>
-      <c r="U3" s="447"/>
-      <c r="V3" s="447"/>
-      <c r="W3" s="448"/>
+      <c r="T3" s="446"/>
+      <c r="U3" s="446"/>
+      <c r="V3" s="446"/>
+      <c r="W3" s="447"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="446" t="s">
+      <c r="Y3" s="445" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="447"/>
-      <c r="AA3" s="447"/>
-      <c r="AB3" s="447"/>
-      <c r="AC3" s="448"/>
+      <c r="Z3" s="446"/>
+      <c r="AA3" s="446"/>
+      <c r="AB3" s="446"/>
+      <c r="AC3" s="447"/>
     </row>
     <row r="4" spans="1:29" ht="26.25">
-      <c r="A4" s="449" t="s">
+      <c r="A4" s="448" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="450"/>
-      <c r="C4" s="451">
+      <c r="B4" s="449"/>
+      <c r="C4" s="450">
         <v>42337</v>
       </c>
-      <c r="D4" s="452"/>
-      <c r="E4" s="453"/>
+      <c r="D4" s="451"/>
+      <c r="E4" s="452"/>
       <c r="F4" s="34"/>
-      <c r="G4" s="449" t="s">
+      <c r="G4" s="448" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="450"/>
-      <c r="I4" s="451">
+      <c r="H4" s="449"/>
+      <c r="I4" s="450">
         <v>42503</v>
       </c>
-      <c r="J4" s="452"/>
-      <c r="K4" s="453"/>
+      <c r="J4" s="451"/>
+      <c r="K4" s="452"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="449" t="s">
+      <c r="M4" s="448" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="450"/>
-      <c r="O4" s="451">
+      <c r="N4" s="449"/>
+      <c r="O4" s="450">
         <v>42337</v>
       </c>
-      <c r="P4" s="452"/>
-      <c r="Q4" s="453"/>
+      <c r="P4" s="451"/>
+      <c r="Q4" s="452"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="449" t="s">
+      <c r="S4" s="448" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="450"/>
-      <c r="U4" s="451">
+      <c r="T4" s="449"/>
+      <c r="U4" s="450">
         <v>42502</v>
       </c>
-      <c r="V4" s="452"/>
-      <c r="W4" s="453"/>
+      <c r="V4" s="451"/>
+      <c r="W4" s="452"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="449" t="s">
+      <c r="Y4" s="448" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="450"/>
-      <c r="AA4" s="451">
+      <c r="Z4" s="449"/>
+      <c r="AA4" s="450">
         <v>42530</v>
       </c>
-      <c r="AB4" s="452"/>
-      <c r="AC4" s="453"/>
+      <c r="AB4" s="451"/>
+      <c r="AC4" s="452"/>
     </row>
     <row r="5" spans="1:29" ht="26.25">
       <c r="A5" s="37">
@@ -28979,6 +28967,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M4:N4"/>
@@ -28991,14 +28987,6 @@
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:W4"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
